--- a/nop-batch/model/nop-batch.orm.xlsx
+++ b/nop-batch/model/nop-batch.orm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy-bak\nop-batch\model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-batch\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28774752-6083-403E-88AB-12668F8236B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B0489C-5098-48B8-9926-9A15AFC96EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="5" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -334,10 +334,6 @@
   </si>
   <si>
     <t>maven.groupId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>io.nop</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1077,6 +1073,10 @@
   </si>
   <si>
     <t>#变量名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>io.github.entropy-cloud</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1339,75 +1339,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1432,6 +1363,24 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1442,6 +1391,57 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1791,10 +1791,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -1803,10 +1803,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -1815,13 +1815,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1829,10 +1829,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -1944,8 +1944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9313AC94-4A2B-4F66-85AD-4A3D79664E62}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1957,7 +1957,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>24</v>
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1982,32 +1982,32 @@
         <v>74</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -2015,54 +2015,54 @@
         <v>75</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>76</v>
+        <v>251</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2244,7 +2244,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
@@ -2261,11 +2261,11 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -2276,10 +2276,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>28</v>
@@ -2295,10 +2295,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>28</v>
@@ -2314,7 +2314,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
@@ -2331,7 +2331,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
@@ -2346,7 +2346,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
@@ -2361,7 +2361,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
@@ -2378,7 +2378,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
@@ -2393,7 +2393,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
@@ -2410,13 +2410,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -2526,132 +2526,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="37"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="30"/>
       <c r="N1" s="15"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="49" t="s">
-        <v>119</v>
-      </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="37"/>
+      <c r="I2" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="30"/>
       <c r="N2" s="15"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="37"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="30"/>
       <c r="N3" s="15"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="52"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="35"/>
       <c r="N4" s="14"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="40"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="42"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="33"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -2667,7 +2667,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -2694,7 +2694,7 @@
         <v>33</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>10</v>
@@ -2711,7 +2711,7 @@
         <v>25</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>26</v>
@@ -2746,14 +2746,14 @@
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>147</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>148</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="7" t="s">
@@ -2778,14 +2778,14 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>151</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>152</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="7" t="s">
@@ -2801,7 +2801,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P10" s="1"/>
     </row>
@@ -2812,14 +2812,14 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>157</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>158</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="7" t="s">
@@ -2831,7 +2831,7 @@
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N11" s="9"/>
       <c r="O11" s="7"/>
@@ -2843,7 +2843,7 @@
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>55</v>
@@ -2853,7 +2853,7 @@
         <v>56</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="7"/>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>57</v>
@@ -2883,7 +2883,7 @@
         <v>58</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="7"/>
@@ -2904,17 +2904,17 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="H14" s="9" t="s">
         <v>206</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>207</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="9" t="s">
@@ -2927,7 +2927,7 @@
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P14" s="1"/>
     </row>
@@ -2938,14 +2938,14 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="7" t="s">
@@ -2970,14 +2970,14 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G16" s="9" t="s">
         <v>245</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>246</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="7"/>
@@ -3000,14 +3000,14 @@
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="7" t="s">
@@ -3037,7 +3037,7 @@
         <v>65</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="7"/>
@@ -3049,7 +3049,7 @@
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P18" s="1"/>
     </row>
@@ -3060,14 +3060,14 @@
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="7"/>
@@ -3081,7 +3081,7 @@
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
       <c r="O19" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P19" s="1"/>
     </row>
@@ -3092,14 +3092,14 @@
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="7"/>
@@ -3122,14 +3122,14 @@
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>161</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>162</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="7"/>
@@ -3152,14 +3152,14 @@
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G22" s="9" t="s">
         <v>196</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>197</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="7"/>
@@ -3180,14 +3180,14 @@
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="G23" s="9" t="s">
         <v>190</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>191</v>
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="7"/>
@@ -3208,14 +3208,14 @@
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="G24" s="9" t="s">
         <v>193</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>194</v>
       </c>
       <c r="H24" s="9"/>
       <c r="I24" s="7"/>
@@ -3236,14 +3236,14 @@
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="G25" s="9" t="s">
         <v>199</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>200</v>
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="7"/>
@@ -3264,14 +3264,14 @@
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="G26" s="9" t="s">
         <v>202</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>203</v>
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="7"/>
@@ -3302,7 +3302,7 @@
         <v>36</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>27</v>
@@ -3334,7 +3334,7 @@
         <v>39</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>27</v>
@@ -3368,7 +3368,7 @@
         <v>43</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>27</v>
@@ -3400,7 +3400,7 @@
         <v>47</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>27</v>
@@ -3434,7 +3434,7 @@
         <v>50</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>27</v>
@@ -3466,7 +3466,7 @@
         <v>10</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I32" s="7"/>
       <c r="J32" s="9" t="s">
@@ -3501,220 +3501,220 @@
     </row>
     <row r="34" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="44"/>
-      <c r="L35" s="44"/>
-      <c r="M35" s="44"/>
-      <c r="N35" s="44"/>
-      <c r="O35" s="44"/>
-      <c r="P35" s="45"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="22"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="53">
+      <c r="A36" s="36">
         <v>1</v>
       </c>
       <c r="B36" s="38" t="s">
         <v>14</v>
       </c>
       <c r="C36" s="39"/>
-      <c r="D36" s="40" t="s">
-        <v>248</v>
-      </c>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
+      <c r="D36" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
       <c r="G36" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H36" s="40"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="29" t="s">
+      <c r="H36" s="31"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="L36" s="31"/>
-      <c r="M36" s="35" t="s">
-        <v>249</v>
-      </c>
-      <c r="N36" s="36"/>
-      <c r="O36" s="36"/>
-      <c r="P36" s="37"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="30"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="54"/>
+      <c r="A37" s="37"/>
       <c r="B37" s="38" t="s">
         <v>4</v>
       </c>
       <c r="C37" s="39"/>
-      <c r="D37" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
+      <c r="D37" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
       <c r="G37" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H37" s="40" t="s">
-        <v>245</v>
-      </c>
-      <c r="I37" s="41"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="29" t="s">
+      <c r="H37" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="I37" s="32"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="L37" s="31"/>
-      <c r="M37" s="35" t="s">
+      <c r="L37" s="41"/>
+      <c r="M37" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="N37" s="36"/>
-      <c r="O37" s="36"/>
-      <c r="P37" s="37"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="30"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="54"/>
+      <c r="A38" s="37"/>
       <c r="B38" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" s="39"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="C38" s="39"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="42"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="33"/>
       <c r="K38" s="17"/>
       <c r="L38" s="18"/>
-      <c r="M38" s="35"/>
-      <c r="N38" s="36"/>
-      <c r="O38" s="36"/>
-      <c r="P38" s="37"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="30"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="54"/>
+      <c r="A39" s="37"/>
       <c r="B39" s="38" t="s">
         <v>10</v>
       </c>
       <c r="C39" s="39"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="29" t="s">
+      <c r="D39" s="31"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="L39" s="31"/>
-      <c r="M39" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="N39" s="36"/>
-      <c r="O39" s="36"/>
-      <c r="P39" s="37"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="N39" s="29"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="30"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="54"/>
-      <c r="B40" s="26" t="s">
+      <c r="A40" s="37"/>
+      <c r="B40" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="26"/>
-      <c r="L40" s="28"/>
-      <c r="M40" s="26"/>
-      <c r="N40" s="27"/>
-      <c r="O40" s="27"/>
-      <c r="P40" s="28"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="44"/>
+      <c r="M40" s="42"/>
+      <c r="N40" s="43"/>
+      <c r="O40" s="43"/>
+      <c r="P40" s="44"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A41" s="54"/>
+      <c r="A41" s="37"/>
       <c r="B41" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="29" t="s">
+      <c r="C41" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="30"/>
-      <c r="E41" s="31"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="41"/>
       <c r="F41" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="29" t="s">
+      <c r="G41" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="H41" s="31"/>
-      <c r="I41" s="29" t="s">
+      <c r="H41" s="41"/>
+      <c r="I41" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="J41" s="31"/>
-      <c r="K41" s="32"/>
-      <c r="L41" s="33"/>
-      <c r="M41" s="32"/>
-      <c r="N41" s="34"/>
-      <c r="O41" s="34"/>
-      <c r="P41" s="33"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="46"/>
+      <c r="N41" s="48"/>
+      <c r="O41" s="48"/>
+      <c r="P41" s="47"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42" s="54"/>
+      <c r="A42" s="37"/>
       <c r="B42" s="8">
         <v>1</v>
       </c>
-      <c r="C42" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="D42" s="24"/>
-      <c r="E42" s="25"/>
+      <c r="C42" s="52" t="s">
+        <v>249</v>
+      </c>
+      <c r="D42" s="53"/>
+      <c r="E42" s="54"/>
       <c r="F42" s="3"/>
-      <c r="G42" s="23" t="s">
+      <c r="G42" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="H42" s="25"/>
+      <c r="H42" s="54"/>
       <c r="I42" s="3"/>
       <c r="J42" s="4"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="21"/>
-      <c r="O42" s="21"/>
-      <c r="P42" s="22"/>
+      <c r="K42" s="49"/>
+      <c r="L42" s="51"/>
+      <c r="M42" s="49"/>
+      <c r="N42" s="50"/>
+      <c r="O42" s="50"/>
+      <c r="P42" s="51"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="54"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="25"/>
+      <c r="A43" s="37"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="54"/>
       <c r="F43" s="3"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="25"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="54"/>
       <c r="I43" s="3"/>
       <c r="J43" s="4"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="21"/>
-      <c r="O43" s="21"/>
-      <c r="P43" s="22"/>
+      <c r="K43" s="49"/>
+      <c r="L43" s="51"/>
+      <c r="M43" s="49"/>
+      <c r="N43" s="50"/>
+      <c r="O43" s="50"/>
+      <c r="P43" s="51"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B45" s="12" t="s">
@@ -3723,23 +3723,57 @@
       <c r="C45" s="12"/>
     </row>
     <row r="46" spans="1:16" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="C46" s="47"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="47"/>
-      <c r="I46" s="47"/>
-      <c r="J46" s="47"/>
-      <c r="K46" s="47"/>
-      <c r="L46" s="47"/>
-      <c r="M46" s="47"/>
+      <c r="B46" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:P43"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="B40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:L36"/>
     <mergeCell ref="A35:P35"/>
     <mergeCell ref="B46:M46"/>
     <mergeCell ref="A6:P6"/>
@@ -3756,40 +3790,6 @@
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="D4:M4"/>
     <mergeCell ref="A36:A43"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:P41"/>
-    <mergeCell ref="B40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:P43"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="K42:L42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3822,134 +3822,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="49" t="s">
-        <v>211</v>
-      </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="52"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="35"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="37"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="30"/>
       <c r="N1" s="15"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="49" t="s">
-        <v>213</v>
-      </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="52"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="35"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="35" t="s">
-        <v>214</v>
-      </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="37"/>
+      <c r="I2" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="30"/>
       <c r="N2" s="15"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="49" t="s">
-        <v>225</v>
-      </c>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="52"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="35"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="37"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="30"/>
       <c r="N3" s="15"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="52"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="35"/>
       <c r="N4" s="14"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="40"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="42"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="33"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -3965,7 +3965,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -3992,7 +3992,7 @@
         <v>33</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>10</v>
@@ -4010,11 +4010,11 @@
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>21</v>
@@ -4044,14 +4044,14 @@
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="7" t="s">
@@ -4076,14 +4076,14 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>175</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>176</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="7" t="s">
@@ -4106,14 +4106,14 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>178</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>179</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="7"/>
@@ -4136,19 +4136,19 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>181</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>182</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="7"/>
       <c r="J12" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K12" s="7">
         <v>30</v>
@@ -4168,14 +4168,14 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>216</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>217</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="7"/>
@@ -4196,19 +4196,19 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>185</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>186</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="7"/>
       <c r="J14" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
@@ -4224,14 +4224,14 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="7"/>
@@ -4241,7 +4241,7 @@
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N15" s="9"/>
       <c r="O15" s="7"/>
@@ -4257,7 +4257,7 @@
         <v>34</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>35</v>
@@ -4266,7 +4266,7 @@
         <v>36</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>27</v>
@@ -4298,7 +4298,7 @@
         <v>39</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>27</v>
@@ -4332,7 +4332,7 @@
         <v>43</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>27</v>
@@ -4364,7 +4364,7 @@
         <v>47</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>27</v>
@@ -4398,7 +4398,7 @@
         <v>50</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>27</v>
@@ -4432,259 +4432,269 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="40"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="42"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="33"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="44"/>
-      <c r="P24" s="45"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="22"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="53">
+      <c r="A25" s="36">
         <v>1</v>
       </c>
       <c r="B25" s="38" t="s">
         <v>14</v>
       </c>
       <c r="C25" s="39"/>
-      <c r="D25" s="40" t="s">
-        <v>219</v>
-      </c>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
+      <c r="D25" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
       <c r="G25" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H25" s="40" t="s">
+      <c r="H25" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="I25" s="32"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="L25" s="41"/>
+      <c r="M25" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="I25" s="41"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="L25" s="31"/>
-      <c r="M25" s="35" t="s">
-        <v>221</v>
-      </c>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="37"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="30"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="54"/>
+      <c r="A26" s="37"/>
       <c r="B26" s="38" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="39"/>
-      <c r="D26" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
+      <c r="D26" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
       <c r="G26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="I26" s="41"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="29" t="s">
+      <c r="H26" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="I26" s="32"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="L26" s="31"/>
-      <c r="M26" s="35" t="s">
+      <c r="L26" s="41"/>
+      <c r="M26" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="37"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="30"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="54"/>
+      <c r="A27" s="37"/>
       <c r="B27" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="39"/>
+      <c r="D27" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="39"/>
-      <c r="D27" s="40" t="s">
+      <c r="H27" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="H27" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="I27" s="41"/>
-      <c r="J27" s="42"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="33"/>
       <c r="K27" s="17"/>
       <c r="L27" s="18"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="37"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="30"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="54"/>
+      <c r="A28" s="37"/>
       <c r="B28" s="38" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="39"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="29" t="s">
+      <c r="D28" s="31"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="31"/>
-      <c r="M28" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="37"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="30"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="54"/>
-      <c r="B29" s="26" t="s">
+      <c r="A29" s="37"/>
+      <c r="B29" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="28"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="44"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="54"/>
+      <c r="A30" s="37"/>
       <c r="B30" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="30"/>
-      <c r="E30" s="31"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="41"/>
       <c r="F30" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="29" t="s">
+      <c r="G30" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="31"/>
-      <c r="I30" s="29" t="s">
+      <c r="H30" s="41"/>
+      <c r="I30" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="31"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="34"/>
-      <c r="O30" s="34"/>
-      <c r="P30" s="33"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="47"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="54"/>
+      <c r="A31" s="37"/>
       <c r="B31" s="8">
         <v>1</v>
       </c>
-      <c r="C31" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="D31" s="24"/>
-      <c r="E31" s="25"/>
+      <c r="C31" s="52" t="s">
+        <v>223</v>
+      </c>
+      <c r="D31" s="53"/>
+      <c r="E31" s="54"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="23" t="s">
+      <c r="G31" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="H31" s="25"/>
+      <c r="H31" s="54"/>
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="22"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="50"/>
+      <c r="P31" s="51"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="54"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="25"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="54"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="25"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="54"/>
       <c r="I32" s="3"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="22"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A22:P22"/>
     <mergeCell ref="A24:P24"/>
@@ -4701,28 +4711,18 @@
     <mergeCell ref="M26:P26"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4733,7 +4733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2266CBF-16D7-4305-8E93-0AAD229883C5}">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:A18"/>
     </sheetView>
   </sheetViews>
@@ -4755,132 +4755,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="49" t="s">
-        <v>121</v>
-      </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="52"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="35"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="42"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="33"/>
       <c r="N1" s="16"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="49" t="s">
-        <v>120</v>
-      </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="52"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="35"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="35" t="s">
-        <v>210</v>
-      </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="37"/>
+      <c r="I2" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="30"/>
       <c r="N2" s="15"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="52"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="35"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="37"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="30"/>
       <c r="N3" s="15"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="52"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="35"/>
       <c r="N4" s="14"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="40"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="42"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="33"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -4896,7 +4896,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -4923,7 +4923,7 @@
         <v>33</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>10</v>
@@ -4941,11 +4941,11 @@
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>21</v>
@@ -4975,14 +4975,14 @@
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="7" t="s">
@@ -5014,7 +5014,7 @@
         <v>65</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="7"/>
@@ -5026,7 +5026,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P10" s="1"/>
     </row>
@@ -5037,14 +5037,14 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="7"/>
@@ -5058,7 +5058,7 @@
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P11" s="1"/>
     </row>
@@ -5069,14 +5069,14 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="7"/>
@@ -5099,14 +5099,14 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>161</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>162</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="7"/>
@@ -5132,7 +5132,7 @@
         <v>34</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>35</v>
@@ -5141,7 +5141,7 @@
         <v>36</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>27</v>
@@ -5173,7 +5173,7 @@
         <v>39</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>27</v>
@@ -5207,7 +5207,7 @@
         <v>43</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>27</v>
@@ -5239,7 +5239,7 @@
         <v>47</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>27</v>
@@ -5273,7 +5273,7 @@
         <v>50</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>27</v>
@@ -5307,236 +5307,243 @@
       <c r="P19" s="1"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44"/>
-      <c r="P21" s="45"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="22"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="53">
+      <c r="A22" s="36">
         <v>1</v>
       </c>
       <c r="B22" s="38" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="39"/>
-      <c r="D22" s="40" t="s">
-        <v>219</v>
-      </c>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
+      <c r="D22" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
       <c r="G22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H22" s="40"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="29" t="s">
+      <c r="H22" s="31"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="L22" s="31"/>
-      <c r="M22" s="35" t="s">
-        <v>221</v>
-      </c>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="37"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="30"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="54"/>
+      <c r="A23" s="37"/>
       <c r="B23" s="38" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="39"/>
-      <c r="D23" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
+      <c r="D23" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
       <c r="G23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H23" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="I23" s="41"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="29" t="s">
+      <c r="H23" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="I23" s="32"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="L23" s="31"/>
-      <c r="M23" s="35" t="s">
+      <c r="L23" s="41"/>
+      <c r="M23" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="37"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="30"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="54"/>
+      <c r="A24" s="37"/>
       <c r="B24" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="39"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="C24" s="39"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="42"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="33"/>
       <c r="K24" s="17"/>
       <c r="L24" s="18"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="37"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="30"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="54"/>
+      <c r="A25" s="37"/>
       <c r="B25" s="38" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="39"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="29" t="s">
+      <c r="D25" s="31"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="L25" s="31"/>
-      <c r="M25" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="37"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="30"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="54"/>
-      <c r="B26" s="26" t="s">
+      <c r="A26" s="37"/>
+      <c r="B26" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="28"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="44"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="54"/>
+      <c r="A27" s="37"/>
       <c r="B27" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="30"/>
-      <c r="E27" s="31"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="41"/>
       <c r="F27" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="29" t="s">
+      <c r="G27" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="31"/>
-      <c r="I27" s="29" t="s">
+      <c r="H27" s="41"/>
+      <c r="I27" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="J27" s="31"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="33"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="47"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="54"/>
+      <c r="A28" s="37"/>
       <c r="B28" s="8">
         <v>1</v>
       </c>
-      <c r="C28" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="25"/>
+      <c r="C28" s="52" t="s">
+        <v>223</v>
+      </c>
+      <c r="D28" s="53"/>
+      <c r="E28" s="54"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="23" t="s">
+      <c r="G28" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="H28" s="25"/>
+      <c r="H28" s="54"/>
       <c r="I28" s="3"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="22"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="51"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="54"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="25"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="54"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="25"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="54"/>
       <c r="I29" s="3"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="22"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:P26"/>
     <mergeCell ref="A21:P21"/>
     <mergeCell ref="A22:A29"/>
     <mergeCell ref="B22:C22"/>
@@ -5553,26 +5560,19 @@
     <mergeCell ref="H24:J24"/>
     <mergeCell ref="M23:P23"/>
     <mergeCell ref="M24:P24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="D4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5605,132 +5605,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="52"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="35"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="37"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="30"/>
       <c r="N1" s="15"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="49" t="s">
-        <v>124</v>
-      </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="52"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="35"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="37"/>
+      <c r="I2" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="30"/>
       <c r="N2" s="15"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="52"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="35"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="37"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="30"/>
       <c r="N3" s="15"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="52"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="35"/>
       <c r="N4" s="14"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="40"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="42"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="33"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -5746,7 +5746,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -5773,7 +5773,7 @@
         <v>33</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>10</v>
@@ -5790,13 +5790,13 @@
         <v>25</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>26</v>
@@ -5827,14 +5827,14 @@
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>127</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="7" t="s">
@@ -5859,14 +5859,14 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>129</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>130</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="7" t="s">
@@ -5891,14 +5891,14 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>137</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>138</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="7" t="s">
@@ -5921,14 +5921,14 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>140</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>141</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="7" t="s">
@@ -5953,14 +5953,14 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>243</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>244</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="7" t="s">
@@ -5985,14 +5985,14 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>240</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>241</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="7" t="s">
@@ -6017,14 +6017,14 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>132</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>133</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="7" t="s">
@@ -6036,7 +6036,7 @@
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N15" s="9"/>
       <c r="O15" s="7"/>
@@ -6049,21 +6049,21 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="G16" s="9" t="s">
         <v>234</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>235</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
@@ -6082,7 +6082,7 @@
         <v>34</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>35</v>
@@ -6091,7 +6091,7 @@
         <v>36</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>27</v>
@@ -6123,7 +6123,7 @@
         <v>39</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>27</v>
@@ -6157,7 +6157,7 @@
         <v>43</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>27</v>
@@ -6189,7 +6189,7 @@
         <v>47</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>27</v>
@@ -6223,7 +6223,7 @@
         <v>50</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>27</v>
@@ -6248,7 +6248,7 @@
         <v>51</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>52</v>
@@ -6257,7 +6257,7 @@
         <v>10</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="9" t="s">
@@ -6291,22 +6291,22 @@
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="40"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="42"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="14">

--- a/nop-batch/model/nop-batch.orm.xlsx
+++ b/nop-batch/model/nop-batch.orm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-batch\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B0489C-5098-48B8-9926-9A15AFC96EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13A18E0-8C95-444D-BC1B-971F058C2823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="249">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -720,10 +720,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Restart Count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>返回码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -824,30 +820,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>READ_COUNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Read Count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WRITE_COUNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Write Count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>写数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>COMPLETED_INDEX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1077,6 +1049,22 @@
   </si>
   <si>
     <t>io.github.entropy-cloud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPLETE_COUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Complete Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Retry Count</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1339,6 +1327,75 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1363,24 +1420,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1391,57 +1430,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1765,14 +1753,14 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.6640625" customWidth="1"/>
-    <col min="2" max="3" width="19.58203125" customWidth="1"/>
-    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="2" max="3" width="19.5546875" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -1786,7 +1774,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1798,19 +1786,19 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1824,7 +1812,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1836,7 +1824,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>11</v>
       </c>
@@ -1844,7 +1832,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>12</v>
       </c>
@@ -1852,7 +1840,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>13</v>
       </c>
@@ -1860,7 +1848,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>14</v>
       </c>
@@ -1868,7 +1856,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>15</v>
       </c>
@@ -1876,7 +1864,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>16</v>
       </c>
@@ -1884,7 +1872,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>17</v>
       </c>
@@ -1892,37 +1880,37 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1944,20 +1932,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9313AC94-4A2B-4F66-85AD-4A3D79664E62}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.08203125" customWidth="1"/>
-    <col min="2" max="2" width="27.9140625" customWidth="1"/>
-    <col min="3" max="3" width="39.25" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" customWidth="1"/>
+    <col min="3" max="3" width="39.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>24</v>
@@ -1966,7 +1954,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>62</v>
       </c>
@@ -1977,7 +1965,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>74</v>
       </c>
@@ -1988,7 +1976,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>91</v>
       </c>
@@ -1999,7 +1987,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>89</v>
       </c>
@@ -2010,18 +1998,18 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>76</v>
       </c>
@@ -2032,7 +2020,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>77</v>
       </c>
@@ -2043,7 +2031,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>79</v>
       </c>
@@ -2054,7 +2042,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>87</v>
       </c>
@@ -2065,32 +2053,32 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2109,12 +2097,12 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.9140625" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>22</v>
       </c>
@@ -2137,7 +2125,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -2154,7 +2142,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -2171,7 +2159,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -2188,7 +2176,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -2205,7 +2193,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -2222,7 +2210,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -2239,7 +2227,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -2256,7 +2244,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -2271,7 +2259,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -2290,12 +2278,12 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>101</v>
@@ -2309,7 +2297,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -2326,7 +2314,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -2341,7 +2329,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -2356,7 +2344,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -2373,7 +2361,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -2388,7 +2376,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -2405,7 +2393,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -2422,7 +2410,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2431,7 +2419,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2440,7 +2428,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2449,7 +2437,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2458,7 +2446,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2467,7 +2455,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2476,7 +2464,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2485,7 +2473,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2502,158 +2490,158 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49753E9A-158A-4EB9-A449-F2590B12608A}">
-  <dimension ref="A1:P46"/>
+  <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:A32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.5" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="4.9140625" customWidth="1"/>
-    <col min="6" max="6" width="15.08203125" customWidth="1"/>
+    <col min="5" max="5" width="4.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="4.75" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="6.08203125" customWidth="1"/>
-    <col min="12" max="12" width="7.4140625" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" customWidth="1"/>
+    <col min="12" max="12" width="7.44140625" customWidth="1"/>
     <col min="13" max="13" width="9" customWidth="1"/>
-    <col min="14" max="14" width="6.5" customWidth="1"/>
+    <col min="14" max="14" width="6.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="26" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="28"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="30"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="37"/>
       <c r="N1" s="15"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="26" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="30"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="37"/>
       <c r="N2" s="15"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="30"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="37"/>
       <c r="N3" s="15"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="34" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="35"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="52"/>
       <c r="N4" s="14"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="33"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="40"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="42"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -2703,7 +2691,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -2739,7 +2727,7 @@
       <c r="O8" s="7"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -2771,7 +2759,7 @@
       <c r="O9" s="7"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>3</v>
       </c>
@@ -2805,7 +2793,7 @@
       </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>4</v>
       </c>
@@ -2837,7 +2825,7 @@
       <c r="O11" s="7"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>5</v>
       </c>
@@ -2867,7 +2855,7 @@
       <c r="O12" s="7"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>6</v>
       </c>
@@ -2897,24 +2885,24 @@
       <c r="O13" s="7"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>7</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="9" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="9" t="s">
@@ -2927,25 +2915,25 @@
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="7" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>8</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="9" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="7" t="s">
@@ -2963,21 +2951,21 @@
       <c r="O15" s="7"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>9</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="9" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="7"/>
@@ -2993,18 +2981,18 @@
       <c r="O16" s="7"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>10</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="9" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="9" t="s">
-        <v>162</v>
+        <v>248</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>148</v>
@@ -3023,7 +3011,7 @@
       <c r="O17" s="7"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>11</v>
       </c>
@@ -3037,7 +3025,7 @@
         <v>65</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="7"/>
@@ -3049,25 +3037,25 @@
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>12</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="9" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="9" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="7"/>
@@ -3081,25 +3069,25 @@
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
       <c r="O19" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>13</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="9" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="9" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="7"/>
@@ -3115,7 +3103,7 @@
       <c r="O20" s="7"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>14</v>
       </c>
@@ -3145,21 +3133,21 @@
       <c r="O21" s="7"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>15</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="9" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="9" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="7"/>
@@ -3173,21 +3161,21 @@
       <c r="O22" s="7"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>16</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="9" t="s">
-        <v>188</v>
+        <v>245</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="9" t="s">
-        <v>189</v>
+        <v>246</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>190</v>
+        <v>247</v>
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="7"/>
@@ -3201,21 +3189,21 @@
       <c r="O23" s="7"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="G24" s="9" t="s">
         <v>192</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>193</v>
       </c>
       <c r="H24" s="9"/>
       <c r="I24" s="7"/>
@@ -3229,21 +3217,21 @@
       <c r="O24" s="7"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="9" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="9" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="7"/>
@@ -3257,24 +3245,28 @@
       <c r="O25" s="7"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="9" t="s">
-        <v>200</v>
+        <v>34</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="9" t="s">
-        <v>201</v>
+        <v>35</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="H26" s="9"/>
-      <c r="I26" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="J26" s="9" t="s">
         <v>63</v>
       </c>
@@ -3285,497 +3277,431 @@
       <c r="O26" s="7"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="K27" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="K27" s="7">
+        <v>50</v>
+      </c>
       <c r="L27" s="7"/>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
       <c r="O27" s="7"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="9" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K28" s="7">
-        <v>50</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
       <c r="O28" s="7"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="K29" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="K29" s="7">
+        <v>50</v>
+      </c>
       <c r="L29" s="7"/>
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
       <c r="O29" s="7"/>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K30" s="7">
-        <v>50</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="K30" s="7"/>
       <c r="L30" s="7"/>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
       <c r="O30" s="7"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="9" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>27</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="I31" s="7"/>
       <c r="J31" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="K31" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="K31" s="7">
+        <v>200</v>
+      </c>
       <c r="L31" s="7"/>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
       <c r="O31" s="7"/>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="7">
-        <v>25</v>
-      </c>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
-      <c r="D32" s="9" t="s">
-        <v>51</v>
-      </c>
+      <c r="D32" s="9"/>
       <c r="E32" s="7"/>
-      <c r="F32" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>106</v>
-      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
       <c r="I32" s="7"/>
-      <c r="J32" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K32" s="7">
-        <v>200</v>
-      </c>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
       <c r="L32" s="7"/>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
       <c r="O32" s="7"/>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="1"/>
-    </row>
-    <row r="34" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="20" t="s">
+    <row r="33" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="22"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="36">
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="44"/>
+      <c r="O34" s="44"/>
+      <c r="P34" s="45"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="53">
         <v>1</v>
       </c>
+      <c r="B35" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="39"/>
+      <c r="D35" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H35" s="40"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="L35" s="31"/>
+      <c r="M35" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="37"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="54"/>
       <c r="B36" s="38" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C36" s="39"/>
-      <c r="D36" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
+      <c r="D36" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
       <c r="G36" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H36" s="31"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="L36" s="41"/>
-      <c r="M36" s="28" t="s">
-        <v>248</v>
-      </c>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="30"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="37"/>
+        <v>3</v>
+      </c>
+      <c r="H36" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="I36" s="41"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="L36" s="31"/>
+      <c r="M36" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="37"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="54"/>
       <c r="B37" s="38" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="C37" s="39"/>
-      <c r="D37" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H37" s="31" t="s">
-        <v>244</v>
-      </c>
-      <c r="I37" s="32"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="L37" s="41"/>
-      <c r="M37" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="N37" s="29"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="30"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="37"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="37"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="54"/>
       <c r="B38" s="38" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="C38" s="39"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="28"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="30"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="37"/>
-      <c r="B39" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" s="39"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="40" t="s">
+      <c r="D38" s="40"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="L39" s="41"/>
-      <c r="M39" s="28" t="s">
+      <c r="L38" s="31"/>
+      <c r="M38" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="N39" s="29"/>
-      <c r="O39" s="29"/>
-      <c r="P39" s="30"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="37"/>
-      <c r="B40" s="42" t="s">
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="37"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="54"/>
+      <c r="B39" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="42"/>
-      <c r="L40" s="44"/>
-      <c r="M40" s="42"/>
-      <c r="N40" s="43"/>
-      <c r="O40" s="43"/>
-      <c r="P40" s="44"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A41" s="37"/>
-      <c r="B41" s="13" t="s">
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="28"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="54"/>
+      <c r="B40" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="40" t="s">
+      <c r="C40" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="45"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="17" t="s">
+      <c r="D40" s="30"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="40" t="s">
+      <c r="G40" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="H41" s="41"/>
-      <c r="I41" s="40" t="s">
+      <c r="H40" s="31"/>
+      <c r="I40" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="J41" s="41"/>
-      <c r="K41" s="46"/>
-      <c r="L41" s="47"/>
-      <c r="M41" s="46"/>
-      <c r="N41" s="48"/>
-      <c r="O41" s="48"/>
-      <c r="P41" s="47"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42" s="37"/>
-      <c r="B42" s="8">
+      <c r="J40" s="31"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="34"/>
+      <c r="O40" s="34"/>
+      <c r="P40" s="33"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="54"/>
+      <c r="B41" s="8">
         <v>1</v>
       </c>
-      <c r="C42" s="52" t="s">
-        <v>249</v>
-      </c>
-      <c r="D42" s="53"/>
-      <c r="E42" s="54"/>
+      <c r="C41" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="D41" s="24"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H41" s="25"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="22"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="54"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="25"/>
       <c r="F42" s="3"/>
-      <c r="G42" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="H42" s="54"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="25"/>
       <c r="I42" s="3"/>
       <c r="J42" s="4"/>
-      <c r="K42" s="49"/>
-      <c r="L42" s="51"/>
-      <c r="M42" s="49"/>
-      <c r="N42" s="50"/>
-      <c r="O42" s="50"/>
-      <c r="P42" s="51"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="37"/>
-      <c r="B43" s="52"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="54"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="49"/>
-      <c r="L43" s="51"/>
-      <c r="M43" s="49"/>
-      <c r="N43" s="50"/>
-      <c r="O43" s="50"/>
-      <c r="P43" s="51"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B45" s="12" t="s">
+      <c r="K42" s="20"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="22"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B44" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="12"/>
-    </row>
-    <row r="46" spans="1:16" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="23" t="s">
+      <c r="C44" s="12"/>
+    </row>
+    <row r="45" spans="1:16" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="24"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="24"/>
-      <c r="M46" s="24"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="47"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="47"/>
+      <c r="M45" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:P43"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:P41"/>
-    <mergeCell ref="B40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="A35:P35"/>
-    <mergeCell ref="B46:M46"/>
+    <mergeCell ref="A34:P34"/>
+    <mergeCell ref="B45:M45"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="I1:M1"/>
@@ -3789,7 +3715,41 @@
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="D4:M4"/>
-    <mergeCell ref="A36:A43"/>
+    <mergeCell ref="A35:A42"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="B39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="K41:L41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3804,154 +3764,154 @@
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.4140625" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.9140625" customWidth="1"/>
-    <col min="5" max="5" width="4.75" customWidth="1"/>
-    <col min="6" max="6" width="15.08203125" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="4.77734375" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="4.75" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="6.08203125" customWidth="1"/>
-    <col min="12" max="12" width="8.25" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" customWidth="1"/>
+    <col min="12" max="12" width="8.21875" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" customWidth="1"/>
-    <col min="14" max="14" width="11.08203125" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="35"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="49" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="52"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="28"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="30"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="37"/>
       <c r="N1" s="15"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="35"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="30"/>
+      <c r="I2" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="37"/>
       <c r="N2" s="15"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="35"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="30"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="37"/>
       <c r="N3" s="15"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="34" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="35"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="52"/>
       <c r="N4" s="14"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="33"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="40"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="42"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -4001,7 +3961,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -4010,11 +3970,11 @@
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>21</v>
@@ -4035,7 +3995,7 @@
       <c r="O8" s="7"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -4044,14 +4004,14 @@
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="7" t="s">
@@ -4069,21 +4029,21 @@
       <c r="O9" s="7"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>3</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>174</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>175</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="7" t="s">
@@ -4099,21 +4059,21 @@
       <c r="O10" s="7"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>4</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>177</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>178</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="7"/>
@@ -4129,26 +4089,26 @@
       <c r="O11" s="7"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>5</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>180</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>181</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="7"/>
       <c r="J12" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K12" s="7">
         <v>30</v>
@@ -4161,21 +4121,21 @@
       <c r="O12" s="7"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>6</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="9" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="7"/>
@@ -4189,21 +4149,21 @@
       <c r="O13" s="7"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>7</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>184</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>185</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="7"/>
@@ -4217,21 +4177,21 @@
       <c r="O14" s="7"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>8</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="7"/>
@@ -4247,7 +4207,7 @@
       <c r="O15" s="7"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>9</v>
       </c>
@@ -4281,7 +4241,7 @@
       <c r="O16" s="7"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>10</v>
       </c>
@@ -4315,7 +4275,7 @@
       <c r="O17" s="7"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>11</v>
       </c>
@@ -4347,7 +4307,7 @@
       <c r="O18" s="7"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>12</v>
       </c>
@@ -4381,7 +4341,7 @@
       <c r="O19" s="7"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>13</v>
       </c>
@@ -4413,7 +4373,7 @@
       <c r="O20" s="7"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -4431,248 +4391,282 @@
       <c r="O21" s="7"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="31"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="33"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="20" t="s">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="40"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="42"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="22"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="36">
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="45"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="53">
         <v>1</v>
       </c>
       <c r="B25" s="38" t="s">
         <v>14</v>
       </c>
       <c r="C25" s="39"/>
-      <c r="D25" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
+      <c r="D25" s="40" t="s">
+        <v>211</v>
+      </c>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
       <c r="G25" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H25" s="31" t="s">
-        <v>219</v>
-      </c>
-      <c r="I25" s="32"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="40" t="s">
+      <c r="H25" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="I25" s="41"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="L25" s="41"/>
-      <c r="M25" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="30"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="37"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="37"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="54"/>
       <c r="B26" s="38" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="39"/>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
       <c r="G26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="31" t="s">
+      <c r="H26" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="I26" s="32"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="40" t="s">
+      <c r="I26" s="41"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="L26" s="41"/>
-      <c r="M26" s="28" t="s">
+      <c r="L26" s="31"/>
+      <c r="M26" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="30"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="37"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="37"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="54"/>
       <c r="B27" s="38" t="s">
         <v>103</v>
       </c>
       <c r="C27" s="39"/>
-      <c r="D27" s="31" t="s">
-        <v>221</v>
-      </c>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
+      <c r="D27" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
       <c r="G27" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="H27" s="32" t="s">
-        <v>222</v>
-      </c>
-      <c r="I27" s="32"/>
-      <c r="J27" s="33"/>
+      <c r="H27" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="I27" s="41"/>
+      <c r="J27" s="42"/>
       <c r="K27" s="17"/>
       <c r="L27" s="18"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="30"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="37"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="37"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="54"/>
       <c r="B28" s="38" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="39"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="40" t="s">
+      <c r="D28" s="40"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="41"/>
-      <c r="M28" s="28" t="s">
+      <c r="L28" s="31"/>
+      <c r="M28" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="30"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="37"/>
-      <c r="B29" s="42" t="s">
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="37"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="54"/>
+      <c r="B29" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="43"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="44"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="37"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="28"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="54"/>
       <c r="B30" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="40" t="s">
+      <c r="C30" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="45"/>
-      <c r="E30" s="41"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="31"/>
       <c r="F30" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="40" t="s">
+      <c r="G30" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="41"/>
-      <c r="I30" s="40" t="s">
+      <c r="H30" s="31"/>
+      <c r="I30" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="41"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="46"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="47"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="37"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="33"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="54"/>
       <c r="B31" s="8">
         <v>1</v>
       </c>
-      <c r="C31" s="52" t="s">
-        <v>223</v>
-      </c>
-      <c r="D31" s="53"/>
-      <c r="E31" s="54"/>
+      <c r="C31" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="D31" s="24"/>
+      <c r="E31" s="25"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="52" t="s">
+      <c r="G31" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="H31" s="54"/>
+      <c r="H31" s="25"/>
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="51"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="37"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="54"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="22"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="54"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="25"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="54"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="25"/>
       <c r="I32" s="3"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="51"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="50"/>
-      <c r="O32" s="50"/>
-      <c r="P32" s="51"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A22:P22"/>
+    <mergeCell ref="A24:P24"/>
+    <mergeCell ref="A25:A32"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
     <mergeCell ref="B29:J29"/>
     <mergeCell ref="K29:L29"/>
     <mergeCell ref="M29:P29"/>
@@ -4689,40 +4683,6 @@
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="K31:L31"/>
     <mergeCell ref="M31:P31"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A22:P22"/>
-    <mergeCell ref="A24:P24"/>
-    <mergeCell ref="A25:A32"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4737,152 +4697,152 @@
       <selection activeCell="A8" sqref="A8:A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.5" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.9140625" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
     <col min="5" max="5" width="4" customWidth="1"/>
-    <col min="6" max="6" width="15.08203125" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="4.75" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="6.08203125" customWidth="1"/>
-    <col min="12" max="12" width="8.25" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" customWidth="1"/>
+    <col min="12" max="12" width="8.21875" customWidth="1"/>
     <col min="13" max="13" width="13.6640625" customWidth="1"/>
     <col min="14" max="14" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="26" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="35"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="52"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="33"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="42"/>
       <c r="N1" s="16"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="26" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="35"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="30"/>
+      <c r="I2" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="37"/>
       <c r="N2" s="15"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="35"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="30"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="37"/>
       <c r="N3" s="15"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="34" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="35"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="52"/>
       <c r="N4" s="14"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="33"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="40"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="42"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -4932,7 +4892,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -4941,11 +4901,11 @@
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>21</v>
@@ -4966,7 +4926,7 @@
       <c r="O8" s="7"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -4975,14 +4935,14 @@
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="9" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="7" t="s">
@@ -5000,7 +4960,7 @@
       <c r="O9" s="7"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>3</v>
       </c>
@@ -5014,7 +4974,7 @@
         <v>65</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="7"/>
@@ -5026,25 +4986,25 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>4</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="9" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="9" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="7"/>
@@ -5058,25 +5018,25 @@
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>5</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="9" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="7"/>
@@ -5092,7 +5052,7 @@
       <c r="O12" s="7"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>6</v>
       </c>
@@ -5122,7 +5082,7 @@
       <c r="O13" s="7"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>7</v>
       </c>
@@ -5156,7 +5116,7 @@
       <c r="O14" s="7"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>8</v>
       </c>
@@ -5190,7 +5150,7 @@
       <c r="O15" s="7"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>9</v>
       </c>
@@ -5222,7 +5182,7 @@
       <c r="O16" s="7"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>10</v>
       </c>
@@ -5256,7 +5216,7 @@
       <c r="O17" s="7"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>11</v>
       </c>
@@ -5288,7 +5248,7 @@
       <c r="O18" s="7"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -5306,244 +5266,237 @@
       <c r="O19" s="7"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="20" t="s">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="22"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="36">
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="45"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="53">
         <v>1</v>
       </c>
       <c r="B22" s="38" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="39"/>
-      <c r="D22" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
+      <c r="D22" s="40" t="s">
+        <v>211</v>
+      </c>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
       <c r="G22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H22" s="31"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="40" t="s">
+      <c r="H22" s="40"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="L22" s="41"/>
-      <c r="M22" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="30"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="37"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="37"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="54"/>
       <c r="B23" s="38" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="39"/>
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
       <c r="G23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H23" s="31" t="s">
+      <c r="H23" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="I23" s="32"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="40" t="s">
+      <c r="I23" s="41"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="L23" s="41"/>
-      <c r="M23" s="28" t="s">
+      <c r="L23" s="31"/>
+      <c r="M23" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="30"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="37"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="37"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="54"/>
       <c r="B24" s="38" t="s">
         <v>103</v>
       </c>
       <c r="C24" s="39"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
       <c r="G24" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="33"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="42"/>
       <c r="K24" s="17"/>
       <c r="L24" s="18"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="30"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="37"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="37"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="54"/>
       <c r="B25" s="38" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="39"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="40" t="s">
+      <c r="D25" s="40"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="L25" s="41"/>
-      <c r="M25" s="28" t="s">
+      <c r="L25" s="31"/>
+      <c r="M25" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="30"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="37"/>
-      <c r="B26" s="42" t="s">
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="37"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="54"/>
+      <c r="B26" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="44"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="37"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="28"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="54"/>
       <c r="B27" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="40" t="s">
+      <c r="C27" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="45"/>
-      <c r="E27" s="41"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="31"/>
       <c r="F27" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="40" t="s">
+      <c r="G27" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="41"/>
-      <c r="I27" s="40" t="s">
+      <c r="H27" s="31"/>
+      <c r="I27" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="J27" s="41"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="47"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="37"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="33"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="54"/>
       <c r="B28" s="8">
         <v>1</v>
       </c>
-      <c r="C28" s="52" t="s">
-        <v>223</v>
-      </c>
-      <c r="D28" s="53"/>
-      <c r="E28" s="54"/>
+      <c r="C28" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="D28" s="24"/>
+      <c r="E28" s="25"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="52" t="s">
+      <c r="G28" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="H28" s="54"/>
+      <c r="H28" s="25"/>
       <c r="I28" s="3"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="50"/>
-      <c r="P28" s="51"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="37"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="54"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="22"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="54"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="25"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="54"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="25"/>
       <c r="I29" s="3"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="50"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="51"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="D4:M4"/>
     <mergeCell ref="A21:P21"/>
     <mergeCell ref="A22:A29"/>
     <mergeCell ref="B22:C22"/>
@@ -5560,19 +5513,26 @@
     <mergeCell ref="H24:J24"/>
     <mergeCell ref="M23:P23"/>
     <mergeCell ref="M24:P24"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:P29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5587,152 +5547,152 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.4140625" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.9140625" customWidth="1"/>
-    <col min="5" max="5" width="4.75" customWidth="1"/>
-    <col min="6" max="6" width="15.08203125" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="4.77734375" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="4.75" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="6.08203125" customWidth="1"/>
-    <col min="12" max="12" width="8.25" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" customWidth="1"/>
+    <col min="12" max="12" width="8.21875" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" customWidth="1"/>
-    <col min="14" max="14" width="11.08203125" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="26" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="35"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="52"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="28"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="30"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="37"/>
       <c r="N1" s="15"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="26" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="35"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="30"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="37"/>
       <c r="N2" s="15"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="35"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="30"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="37"/>
       <c r="N3" s="15"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="34" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="35"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="52"/>
       <c r="N4" s="14"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="33"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="40"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="42"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -5782,7 +5742,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -5820,7 +5780,7 @@
       <c r="O8" s="7"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -5852,7 +5812,7 @@
       <c r="O9" s="7"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>3</v>
       </c>
@@ -5884,7 +5844,7 @@
       <c r="O10" s="7"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>4</v>
       </c>
@@ -5914,7 +5874,7 @@
       <c r="O11" s="7"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>5</v>
       </c>
@@ -5946,21 +5906,21 @@
       <c r="O12" s="7"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>6</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="9" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="7" t="s">
@@ -5978,21 +5938,21 @@
       <c r="O13" s="7"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>7</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="9" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="7" t="s">
@@ -6010,7 +5970,7 @@
       <c r="O14" s="7"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>8</v>
       </c>
@@ -6042,21 +6002,21 @@
       <c r="O15" s="7"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>9</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="9" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="7" t="s">
@@ -6072,7 +6032,7 @@
       <c r="O16" s="7"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>10</v>
       </c>
@@ -6106,7 +6066,7 @@
       <c r="O17" s="7"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>11</v>
       </c>
@@ -6140,7 +6100,7 @@
       <c r="O18" s="7"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>12</v>
       </c>
@@ -6172,7 +6132,7 @@
       <c r="O19" s="7"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>13</v>
       </c>
@@ -6206,7 +6166,7 @@
       <c r="O20" s="7"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>14</v>
       </c>
@@ -6238,7 +6198,7 @@
       <c r="O21" s="7"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>15</v>
       </c>
@@ -6272,7 +6232,7 @@
       <c r="O22" s="7"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -6290,23 +6250,23 @@
       <c r="O23" s="7"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="31"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="33"/>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="40"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="14">

--- a/nop-batch/model/nop-batch.orm.xlsx
+++ b/nop-batch/model/nop-batch.orm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-batch\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13A18E0-8C95-444D-BC1B-971F058C2823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9DB728D-6B43-4ABA-82A6-BECE1DF0245E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="250">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1065,6 +1065,10 @@
   </si>
   <si>
     <t>Retry Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1327,75 +1331,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1420,6 +1355,24 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1430,6 +1383,57 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2492,8 +2496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49753E9A-158A-4EB9-A449-F2590B12608A}">
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2514,132 +2518,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="49" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="37"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="30"/>
       <c r="N1" s="15"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="49" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="37"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="30"/>
       <c r="N2" s="15"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="37"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="30"/>
       <c r="N3" s="15"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="52"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="35"/>
       <c r="N4" s="14"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="42"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="33"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -3150,7 +3154,9 @@
         <v>189</v>
       </c>
       <c r="H22" s="9"/>
-      <c r="I22" s="7"/>
+      <c r="I22" s="7" t="s">
+        <v>249</v>
+      </c>
       <c r="J22" s="9" t="s">
         <v>63</v>
       </c>
@@ -3178,7 +3184,9 @@
         <v>247</v>
       </c>
       <c r="H23" s="9"/>
-      <c r="I23" s="7"/>
+      <c r="I23" s="7" t="s">
+        <v>249</v>
+      </c>
       <c r="J23" s="9" t="s">
         <v>63</v>
       </c>
@@ -3206,7 +3214,9 @@
         <v>192</v>
       </c>
       <c r="H24" s="9"/>
-      <c r="I24" s="7"/>
+      <c r="I24" s="7" t="s">
+        <v>249</v>
+      </c>
       <c r="J24" s="9" t="s">
         <v>63</v>
       </c>
@@ -3234,7 +3244,9 @@
         <v>195</v>
       </c>
       <c r="H25" s="9"/>
-      <c r="I25" s="7"/>
+      <c r="I25" s="7" t="s">
+        <v>249</v>
+      </c>
       <c r="J25" s="9" t="s">
         <v>63</v>
       </c>
@@ -3461,220 +3473,220 @@
     </row>
     <row r="33" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="43" t="s">
+      <c r="A34" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="44"/>
-      <c r="L34" s="44"/>
-      <c r="M34" s="44"/>
-      <c r="N34" s="44"/>
-      <c r="O34" s="44"/>
-      <c r="P34" s="45"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="22"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="53">
+      <c r="A35" s="36">
         <v>1</v>
       </c>
       <c r="B35" s="38" t="s">
         <v>14</v>
       </c>
       <c r="C35" s="39"/>
-      <c r="D35" s="40" t="s">
+      <c r="D35" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
       <c r="G35" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H35" s="40"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="29" t="s">
+      <c r="H35" s="31"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="L35" s="31"/>
-      <c r="M35" s="35" t="s">
+      <c r="L35" s="41"/>
+      <c r="M35" s="28" t="s">
         <v>241</v>
       </c>
-      <c r="N35" s="36"/>
-      <c r="O35" s="36"/>
-      <c r="P35" s="37"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="30"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="54"/>
+      <c r="A36" s="37"/>
       <c r="B36" s="38" t="s">
         <v>4</v>
       </c>
       <c r="C36" s="39"/>
-      <c r="D36" s="40" t="s">
+      <c r="D36" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
       <c r="G36" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H36" s="40" t="s">
+      <c r="H36" s="31" t="s">
         <v>237</v>
       </c>
-      <c r="I36" s="41"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="29" t="s">
+      <c r="I36" s="32"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="L36" s="31"/>
-      <c r="M36" s="35" t="s">
+      <c r="L36" s="41"/>
+      <c r="M36" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="N36" s="36"/>
-      <c r="O36" s="36"/>
-      <c r="P36" s="37"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="30"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="54"/>
+      <c r="A37" s="37"/>
       <c r="B37" s="38" t="s">
         <v>103</v>
       </c>
       <c r="C37" s="39"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
       <c r="G37" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="42"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="33"/>
       <c r="K37" s="17"/>
       <c r="L37" s="18"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="36"/>
-      <c r="O37" s="36"/>
-      <c r="P37" s="37"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="30"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="54"/>
+      <c r="A38" s="37"/>
       <c r="B38" s="38" t="s">
         <v>10</v>
       </c>
       <c r="C38" s="39"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="29" t="s">
+      <c r="D38" s="31"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="L38" s="31"/>
-      <c r="M38" s="35" t="s">
+      <c r="L38" s="41"/>
+      <c r="M38" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="N38" s="36"/>
-      <c r="O38" s="36"/>
-      <c r="P38" s="37"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="30"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="54"/>
-      <c r="B39" s="26" t="s">
+      <c r="A39" s="37"/>
+      <c r="B39" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="26"/>
-      <c r="L39" s="28"/>
-      <c r="M39" s="26"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="27"/>
-      <c r="P39" s="28"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="43"/>
+      <c r="O39" s="43"/>
+      <c r="P39" s="44"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="54"/>
+      <c r="A40" s="37"/>
       <c r="B40" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="29" t="s">
+      <c r="C40" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="30"/>
-      <c r="E40" s="31"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="41"/>
       <c r="F40" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G40" s="29" t="s">
+      <c r="G40" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="H40" s="31"/>
-      <c r="I40" s="29" t="s">
+      <c r="H40" s="41"/>
+      <c r="I40" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="J40" s="31"/>
-      <c r="K40" s="32"/>
-      <c r="L40" s="33"/>
-      <c r="M40" s="32"/>
-      <c r="N40" s="34"/>
-      <c r="O40" s="34"/>
-      <c r="P40" s="33"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="47"/>
+      <c r="M40" s="46"/>
+      <c r="N40" s="48"/>
+      <c r="O40" s="48"/>
+      <c r="P40" s="47"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="54"/>
+      <c r="A41" s="37"/>
       <c r="B41" s="8">
         <v>1</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="C41" s="52" t="s">
         <v>242</v>
       </c>
-      <c r="D41" s="24"/>
-      <c r="E41" s="25"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="54"/>
       <c r="F41" s="3"/>
-      <c r="G41" s="23" t="s">
+      <c r="G41" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="H41" s="25"/>
+      <c r="H41" s="54"/>
       <c r="I41" s="3"/>
       <c r="J41" s="4"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="21"/>
-      <c r="O41" s="21"/>
-      <c r="P41" s="22"/>
+      <c r="K41" s="49"/>
+      <c r="L41" s="51"/>
+      <c r="M41" s="49"/>
+      <c r="N41" s="50"/>
+      <c r="O41" s="50"/>
+      <c r="P41" s="51"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="54"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="25"/>
+      <c r="A42" s="37"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="54"/>
       <c r="F42" s="3"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="25"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="54"/>
       <c r="I42" s="3"/>
       <c r="J42" s="4"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="21"/>
-      <c r="O42" s="21"/>
-      <c r="P42" s="22"/>
+      <c r="K42" s="49"/>
+      <c r="L42" s="51"/>
+      <c r="M42" s="49"/>
+      <c r="N42" s="50"/>
+      <c r="O42" s="50"/>
+      <c r="P42" s="51"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
@@ -3683,23 +3695,57 @@
       <c r="C44" s="12"/>
     </row>
     <row r="45" spans="1:16" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="46" t="s">
+      <c r="B45" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="47"/>
-      <c r="H45" s="47"/>
-      <c r="I45" s="47"/>
-      <c r="J45" s="47"/>
-      <c r="K45" s="47"/>
-      <c r="L45" s="47"/>
-      <c r="M45" s="47"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="B39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="K35:L35"/>
     <mergeCell ref="A34:P34"/>
     <mergeCell ref="B45:M45"/>
     <mergeCell ref="A6:P6"/>
@@ -3716,40 +3762,6 @@
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="D4:M4"/>
     <mergeCell ref="A35:A42"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="B39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M41:P41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="K41:L41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3782,134 +3794,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="49" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="52"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="35"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="37"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="30"/>
       <c r="N1" s="15"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="49" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="52"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="35"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="37"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="30"/>
       <c r="N2" s="15"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="49" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="52"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="35"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="37"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="30"/>
       <c r="N3" s="15"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="52"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="35"/>
       <c r="N4" s="14"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="42"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="33"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -4392,259 +4404,269 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="42"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="33"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="44"/>
-      <c r="P24" s="45"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="22"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="53">
+      <c r="A25" s="36">
         <v>1</v>
       </c>
       <c r="B25" s="38" t="s">
         <v>14</v>
       </c>
       <c r="C25" s="39"/>
-      <c r="D25" s="40" t="s">
+      <c r="D25" s="31" t="s">
         <v>211</v>
       </c>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
       <c r="G25" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H25" s="40" t="s">
+      <c r="H25" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="I25" s="41"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="29" t="s">
+      <c r="I25" s="32"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="L25" s="31"/>
-      <c r="M25" s="35" t="s">
+      <c r="L25" s="41"/>
+      <c r="M25" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="37"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="30"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="54"/>
+      <c r="A26" s="37"/>
       <c r="B26" s="38" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="39"/>
-      <c r="D26" s="40" t="s">
+      <c r="D26" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
       <c r="G26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="40" t="s">
+      <c r="H26" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="I26" s="41"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="29" t="s">
+      <c r="I26" s="32"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="L26" s="31"/>
-      <c r="M26" s="35" t="s">
+      <c r="L26" s="41"/>
+      <c r="M26" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="37"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="30"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="54"/>
+      <c r="A27" s="37"/>
       <c r="B27" s="38" t="s">
         <v>103</v>
       </c>
       <c r="C27" s="39"/>
-      <c r="D27" s="40" t="s">
+      <c r="D27" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
       <c r="G27" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="H27" s="41" t="s">
+      <c r="H27" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="I27" s="41"/>
-      <c r="J27" s="42"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="33"/>
       <c r="K27" s="17"/>
       <c r="L27" s="18"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="37"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="30"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="54"/>
+      <c r="A28" s="37"/>
       <c r="B28" s="38" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="39"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="29" t="s">
+      <c r="D28" s="31"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="31"/>
-      <c r="M28" s="35" t="s">
+      <c r="L28" s="41"/>
+      <c r="M28" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="37"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="30"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="54"/>
-      <c r="B29" s="26" t="s">
+      <c r="A29" s="37"/>
+      <c r="B29" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="28"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="44"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="54"/>
+      <c r="A30" s="37"/>
       <c r="B30" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="30"/>
-      <c r="E30" s="31"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="41"/>
       <c r="F30" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="29" t="s">
+      <c r="G30" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="31"/>
-      <c r="I30" s="29" t="s">
+      <c r="H30" s="41"/>
+      <c r="I30" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="31"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="34"/>
-      <c r="O30" s="34"/>
-      <c r="P30" s="33"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="47"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="54"/>
+      <c r="A31" s="37"/>
       <c r="B31" s="8">
         <v>1</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="52" t="s">
         <v>216</v>
       </c>
-      <c r="D31" s="24"/>
-      <c r="E31" s="25"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="54"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="23" t="s">
+      <c r="G31" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="H31" s="25"/>
+      <c r="H31" s="54"/>
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="22"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="50"/>
+      <c r="P31" s="51"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="54"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="25"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="54"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="25"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="54"/>
       <c r="I32" s="3"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="22"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A22:P22"/>
     <mergeCell ref="A24:P24"/>
@@ -4661,28 +4683,18 @@
     <mergeCell ref="M26:P26"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4715,132 +4727,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="49" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="52"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="35"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="42"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="33"/>
       <c r="N1" s="16"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="49" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="52"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="35"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="37"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="30"/>
       <c r="N2" s="15"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="52"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="35"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="37"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="30"/>
       <c r="N3" s="15"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="52"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="35"/>
       <c r="N4" s="14"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="42"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="33"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -5267,236 +5279,243 @@
       <c r="P19" s="1"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44"/>
-      <c r="P21" s="45"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="22"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="53">
+      <c r="A22" s="36">
         <v>1</v>
       </c>
       <c r="B22" s="38" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="39"/>
-      <c r="D22" s="40" t="s">
+      <c r="D22" s="31" t="s">
         <v>211</v>
       </c>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
       <c r="G22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H22" s="40"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="29" t="s">
+      <c r="H22" s="31"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="L22" s="31"/>
-      <c r="M22" s="35" t="s">
+      <c r="L22" s="41"/>
+      <c r="M22" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="37"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="30"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="54"/>
+      <c r="A23" s="37"/>
       <c r="B23" s="38" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="39"/>
-      <c r="D23" s="40" t="s">
+      <c r="D23" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
       <c r="G23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H23" s="40" t="s">
+      <c r="H23" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="I23" s="41"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="29" t="s">
+      <c r="I23" s="32"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="L23" s="31"/>
-      <c r="M23" s="35" t="s">
+      <c r="L23" s="41"/>
+      <c r="M23" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="37"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="30"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="54"/>
+      <c r="A24" s="37"/>
       <c r="B24" s="38" t="s">
         <v>103</v>
       </c>
       <c r="C24" s="39"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
       <c r="G24" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="42"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="33"/>
       <c r="K24" s="17"/>
       <c r="L24" s="18"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="37"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="30"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="54"/>
+      <c r="A25" s="37"/>
       <c r="B25" s="38" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="39"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="29" t="s">
+      <c r="D25" s="31"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="L25" s="31"/>
-      <c r="M25" s="35" t="s">
+      <c r="L25" s="41"/>
+      <c r="M25" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="37"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="30"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="54"/>
-      <c r="B26" s="26" t="s">
+      <c r="A26" s="37"/>
+      <c r="B26" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="28"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="44"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="54"/>
+      <c r="A27" s="37"/>
       <c r="B27" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="30"/>
-      <c r="E27" s="31"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="41"/>
       <c r="F27" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="29" t="s">
+      <c r="G27" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="31"/>
-      <c r="I27" s="29" t="s">
+      <c r="H27" s="41"/>
+      <c r="I27" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="J27" s="31"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="33"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="47"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="54"/>
+      <c r="A28" s="37"/>
       <c r="B28" s="8">
         <v>1</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="52" t="s">
         <v>216</v>
       </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="25"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="54"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="23" t="s">
+      <c r="G28" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="H28" s="25"/>
+      <c r="H28" s="54"/>
       <c r="I28" s="3"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="22"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="51"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="54"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="25"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="54"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="25"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="54"/>
       <c r="I29" s="3"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="22"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:P26"/>
     <mergeCell ref="A21:P21"/>
     <mergeCell ref="A22:A29"/>
     <mergeCell ref="B22:C22"/>
@@ -5513,26 +5532,19 @@
     <mergeCell ref="H24:J24"/>
     <mergeCell ref="M23:P23"/>
     <mergeCell ref="M24:P24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="D4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5565,132 +5577,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="49" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="52"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="35"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="37"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="30"/>
       <c r="N1" s="15"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="49" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="52"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="35"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="37"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="30"/>
       <c r="N2" s="15"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="52"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="35"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="37"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="30"/>
       <c r="N3" s="15"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="52"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="35"/>
       <c r="N4" s="14"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="42"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="33"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -6251,22 +6263,22 @@
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="42"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="14">

--- a/nop-batch/model/nop-batch.orm.xlsx
+++ b/nop-batch/model/nop-batch.orm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-batch\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9DB728D-6B43-4ABA-82A6-BECE1DF0245E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D513DD7-3D7E-45AA-BAA7-B2AE9ADECC95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
@@ -16,10 +16,11 @@
     <sheet name="目录" sheetId="2" r:id="rId1"/>
     <sheet name="配置" sheetId="3" r:id="rId2"/>
     <sheet name="域定义" sheetId="15" r:id="rId3"/>
-    <sheet name="nop_batch_task" sheetId="1" r:id="rId4"/>
-    <sheet name="nop_batch_task_state" sheetId="18" r:id="rId5"/>
-    <sheet name="nop_batch_record_result" sheetId="6" r:id="rId6"/>
-    <sheet name="nop_batch_file" sheetId="7" r:id="rId7"/>
+    <sheet name="字典定义" sheetId="19" r:id="rId4"/>
+    <sheet name="nop_batch_task" sheetId="1" r:id="rId5"/>
+    <sheet name="nop_batch_task_var" sheetId="18" r:id="rId6"/>
+    <sheet name="nop_batch_record_result" sheetId="6" r:id="rId7"/>
+    <sheet name="nop_batch_file" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="295">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -664,10 +665,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>重试次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TASK_KEY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -832,30 +829,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PROCESS_COUNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Process Count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKIP_COUNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skip Count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳过数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TASK_PARAMS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -872,14 +845,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RETRY_COUNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第几次重试。如果是第一次执行，则为0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Batch Record Result</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -896,10 +861,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Batch Task State</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LONG_VALUE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -920,10 +881,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>taskStates</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NopBatchTask</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1052,31 +1009,254 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>COMPLETE_COUNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Complete Count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Retry Count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>M</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nop_batch_task_var</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Batch Task Variable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taskVars</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录每条记录的处理结果，可以用于幂等处理，避免重复处理同一条记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKIP_ITEM_COUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROCESS_ITEM_COUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPLETE_ITEM_COUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Complete Item Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Process Item Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skip Item Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WRITE_ITEM_COUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Write Item Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXEC_COUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exec Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTEGER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本任务的第几次执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RETRY_CHUNK_COUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Retry Chunk Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重试分块次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成条目数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理条目数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳过条目数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写入条目数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>值类型</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文名</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文名</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典项</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>已创建</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATED</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>已暂停</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUSPENDED</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPLETED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAILED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已终止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KILLED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强制终止</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>已取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CANCELLED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消执行</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch/task-status</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Batch Task Status</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>批处理任务状态</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>RUNNING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常结束</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常结束</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1126,8 +1306,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1176,8 +1369,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9CC2E5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EEDA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1261,6 +1466,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1270,7 +1488,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1331,6 +1549,129 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1355,86 +1696,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1795,10 +2061,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -1949,7 +2215,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>24</v>
@@ -2007,7 +2273,7 @@
         <v>75</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>82</v>
@@ -2287,7 +2553,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>101</v>
@@ -2493,11 +2759,255 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49753E9A-158A-4EB9-A449-F2590B12608A}">
-  <dimension ref="A1:P45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC46440-21D3-4FE9-B17C-6C332CFF392A}">
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="27">
+        <v>2</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="E1" s="33"/>
+      <c r="F1" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="E2" s="33"/>
+      <c r="F2" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="28"/>
+      <c r="B3" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="33"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="28"/>
+      <c r="B4" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="37"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="28"/>
+      <c r="B5" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="28"/>
+      <c r="B6" s="21">
+        <v>1</v>
+      </c>
+      <c r="C6" s="21">
+        <v>0</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="28"/>
+      <c r="B7" s="21">
+        <v>2</v>
+      </c>
+      <c r="C7" s="21">
+        <v>10</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="28"/>
+      <c r="B8" s="21">
+        <v>3</v>
+      </c>
+      <c r="C8" s="26">
+        <v>20</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="F8" s="24"/>
+      <c r="G8" s="25" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="28"/>
+      <c r="B9" s="21">
+        <v>4</v>
+      </c>
+      <c r="C9" s="26">
+        <v>30</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="F9" s="24"/>
+      <c r="G9" s="25" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="28"/>
+      <c r="B10" s="21">
+        <v>5</v>
+      </c>
+      <c r="C10" s="26">
+        <v>40</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="28"/>
+      <c r="B11" s="21">
+        <v>7</v>
+      </c>
+      <c r="C11" s="26">
+        <v>50</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="G11" s="25" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="28"/>
+      <c r="B12" s="21">
+        <v>6</v>
+      </c>
+      <c r="C12" s="26">
+        <v>60</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="F12" s="24"/>
+      <c r="G12" s="25" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="29"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="40"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A1:A13"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B13:G13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49753E9A-158A-4EB9-A449-F2590B12608A}">
+  <dimension ref="A1:P47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2518,132 +3028,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="26" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="67" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="28"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="30"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="58"/>
       <c r="N1" s="15"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="26" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="67" t="s">
         <v>118</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="56" t="s">
         <v>144</v>
       </c>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="30"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="58"/>
       <c r="N2" s="15"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="30"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="58"/>
       <c r="N3" s="15"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="35"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="70"/>
       <c r="N4" s="14"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
       <c r="P5" s="33"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -2770,14 +3280,14 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>150</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>151</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="7" t="s">
@@ -2793,7 +3303,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P10" s="1"/>
     </row>
@@ -2804,14 +3314,14 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>156</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>157</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="7" t="s">
@@ -2823,7 +3333,7 @@
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N11" s="9"/>
       <c r="O11" s="7"/>
@@ -2845,7 +3355,7 @@
         <v>56</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="7"/>
@@ -2875,7 +3385,7 @@
         <v>58</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="7"/>
@@ -2896,17 +3406,17 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="9" t="s">
@@ -2918,9 +3428,7 @@
       <c r="L14" s="7"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
-      <c r="O14" s="7" t="s">
-        <v>201</v>
-      </c>
+      <c r="O14" s="7"/>
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -2930,29 +3438,29 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="9" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="7" t="s">
-        <v>27</v>
+        <v>251</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="7">
-        <v>100</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
-      <c r="O15" s="7"/>
+      <c r="O15" s="7" t="s">
+        <v>252</v>
+      </c>
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -2962,22 +3470,24 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="9" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="H16" s="9"/>
-      <c r="I16" s="7"/>
+      <c r="I16" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="J16" s="9" t="s">
         <v>28</v>
       </c>
       <c r="K16" s="7">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="L16" s="7"/>
       <c r="M16" s="9"/>
@@ -2992,23 +3502,23 @@
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="9" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="9" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>148</v>
+        <v>227</v>
       </c>
       <c r="H17" s="9"/>
-      <c r="I17" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="I17" s="7"/>
       <c r="J17" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K17" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="K17" s="7">
+        <v>32</v>
+      </c>
       <c r="L17" s="7"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
@@ -3029,7 +3539,7 @@
         <v>65</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="7"/>
@@ -3041,7 +3551,7 @@
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P18" s="1"/>
     </row>
@@ -3052,14 +3562,14 @@
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="9" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="9" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="7"/>
@@ -3073,7 +3583,7 @@
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
       <c r="O19" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P19" s="1"/>
     </row>
@@ -3084,14 +3594,14 @@
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="9" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="9" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="7"/>
@@ -3114,14 +3624,14 @@
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>160</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>161</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="7"/>
@@ -3144,18 +3654,18 @@
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="G22" s="9" t="s">
         <v>188</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>189</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="7" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="J22" s="9" t="s">
         <v>63</v>
@@ -3174,18 +3684,18 @@
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="9" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="9" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="7" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="J23" s="9" t="s">
         <v>63</v>
@@ -3199,26 +3709,26 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="9" t="s">
-        <v>190</v>
+        <v>253</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="9" t="s">
-        <v>191</v>
+        <v>254</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>192</v>
+        <v>255</v>
       </c>
       <c r="H24" s="9"/>
       <c r="I24" s="7" t="s">
-        <v>249</v>
+        <v>27</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
@@ -3229,23 +3739,23 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="9" t="s">
-        <v>193</v>
+        <v>240</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="9" t="s">
-        <v>194</v>
+        <v>243</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>195</v>
+        <v>257</v>
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="7" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="J25" s="9" t="s">
         <v>63</v>
@@ -3259,25 +3769,23 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="9" t="s">
-        <v>34</v>
+        <v>239</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="9" t="s">
-        <v>35</v>
+        <v>244</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>94</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="H26" s="9"/>
       <c r="I26" s="7" t="s">
-        <v>27</v>
+        <v>234</v>
       </c>
       <c r="J26" s="9" t="s">
         <v>63</v>
@@ -3291,32 +3799,28 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="9" t="s">
-        <v>37</v>
+        <v>245</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="9" t="s">
-        <v>38</v>
+        <v>246</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>95</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="H27" s="9"/>
       <c r="I27" s="7" t="s">
-        <v>27</v>
+        <v>261</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K27" s="7">
-        <v>50</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="K27" s="7"/>
       <c r="L27" s="7"/>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
@@ -3325,28 +3829,28 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="9" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
@@ -3357,22 +3861,22 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="9" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="9" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>27</v>
@@ -3391,22 +3895,22 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>27</v>
@@ -3423,29 +3927,31 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="I31" s="7"/>
+        <v>96</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="J31" s="9" t="s">
         <v>28</v>
       </c>
       <c r="K31" s="7">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="L31" s="7"/>
       <c r="M31" s="9"/>
@@ -3454,16 +3960,30 @@
       <c r="P31" s="1"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
+      <c r="A32" s="7">
+        <v>25</v>
+      </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
-      <c r="D32" s="9"/>
+      <c r="D32" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
+      <c r="F32" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
       <c r="M32" s="9"/>
@@ -3471,283 +3991,299 @@
       <c r="O32" s="7"/>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>26</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="I33" s="7"/>
+      <c r="J33" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K33" s="7">
+        <v>200</v>
+      </c>
+      <c r="L33" s="7"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="1"/>
+    </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="1"/>
+    </row>
+    <row r="35" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="22"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="36">
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="62"/>
+      <c r="J36" s="62"/>
+      <c r="K36" s="62"/>
+      <c r="L36" s="62"/>
+      <c r="M36" s="62"/>
+      <c r="N36" s="62"/>
+      <c r="O36" s="62"/>
+      <c r="P36" s="63"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="27">
         <v>1</v>
       </c>
-      <c r="B35" s="38" t="s">
+      <c r="B37" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="39"/>
-      <c r="D35" s="31" t="s">
-        <v>240</v>
-      </c>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="2" t="s">
+      <c r="C37" s="60"/>
+      <c r="D37" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H35" s="31"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="40" t="s">
+      <c r="H37" s="32"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="L35" s="41"/>
-      <c r="M35" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="N35" s="29"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="30"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="37"/>
-      <c r="B36" s="38" t="s">
+      <c r="L37" s="52"/>
+      <c r="M37" s="56" t="s">
+        <v>230</v>
+      </c>
+      <c r="N37" s="57"/>
+      <c r="O37" s="57"/>
+      <c r="P37" s="58"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="28"/>
+      <c r="B38" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="39"/>
-      <c r="D36" s="31" t="s">
+      <c r="C38" s="60"/>
+      <c r="D38" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="2" t="s">
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H36" s="31" t="s">
-        <v>237</v>
-      </c>
-      <c r="I36" s="32"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="40" t="s">
+      <c r="H38" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="I38" s="34"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="L36" s="41"/>
-      <c r="M36" s="28" t="s">
+      <c r="L38" s="52"/>
+      <c r="M38" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="30"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="37"/>
-      <c r="B37" s="38" t="s">
+      <c r="N38" s="57"/>
+      <c r="O38" s="57"/>
+      <c r="P38" s="58"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="28"/>
+      <c r="B39" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="C37" s="39"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="19" t="s">
+      <c r="C39" s="60"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="28"/>
-      <c r="N37" s="29"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="30"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="37"/>
-      <c r="B38" s="38" t="s">
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="56"/>
+      <c r="N39" s="57"/>
+      <c r="O39" s="57"/>
+      <c r="P39" s="58"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="28"/>
+      <c r="B40" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="39"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="40" t="s">
+      <c r="C40" s="60"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="L38" s="41"/>
-      <c r="M38" s="28" t="s">
+      <c r="L40" s="52"/>
+      <c r="M40" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="N38" s="29"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="30"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="37"/>
-      <c r="B39" s="42" t="s">
+      <c r="N40" s="57"/>
+      <c r="O40" s="57"/>
+      <c r="P40" s="58"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="28"/>
+      <c r="B41" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="42"/>
-      <c r="L39" s="44"/>
-      <c r="M39" s="42"/>
-      <c r="N39" s="43"/>
-      <c r="O39" s="43"/>
-      <c r="P39" s="44"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="37"/>
-      <c r="B40" s="13" t="s">
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="49"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="49"/>
+      <c r="M41" s="47"/>
+      <c r="N41" s="48"/>
+      <c r="O41" s="48"/>
+      <c r="P41" s="49"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="28"/>
+      <c r="B42" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="40" t="s">
+      <c r="C42" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="45"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="17" t="s">
+      <c r="D42" s="51"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G40" s="40" t="s">
+      <c r="G42" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="H40" s="41"/>
-      <c r="I40" s="40" t="s">
+      <c r="H42" s="52"/>
+      <c r="I42" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="J40" s="41"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="47"/>
-      <c r="M40" s="46"/>
-      <c r="N40" s="48"/>
-      <c r="O40" s="48"/>
-      <c r="P40" s="47"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="37"/>
-      <c r="B41" s="8">
+      <c r="J42" s="52"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="54"/>
+      <c r="M42" s="53"/>
+      <c r="N42" s="55"/>
+      <c r="O42" s="55"/>
+      <c r="P42" s="54"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="28"/>
+      <c r="B43" s="8">
         <v>1</v>
       </c>
-      <c r="C41" s="52" t="s">
-        <v>242</v>
-      </c>
-      <c r="D41" s="53"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="52" t="s">
+      <c r="C43" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="D43" s="45"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="H41" s="54"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="49"/>
-      <c r="L41" s="51"/>
-      <c r="M41" s="49"/>
-      <c r="N41" s="50"/>
-      <c r="O41" s="50"/>
-      <c r="P41" s="51"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="37"/>
-      <c r="B42" s="52"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="52"/>
-      <c r="H42" s="54"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="49"/>
-      <c r="L42" s="51"/>
-      <c r="M42" s="49"/>
-      <c r="N42" s="50"/>
-      <c r="O42" s="50"/>
-      <c r="P42" s="51"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="41"/>
+      <c r="N43" s="42"/>
+      <c r="O43" s="42"/>
+      <c r="P43" s="43"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B44" s="12" t="s">
+      <c r="A44" s="28"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="41"/>
+      <c r="L44" s="43"/>
+      <c r="M44" s="41"/>
+      <c r="N44" s="42"/>
+      <c r="O44" s="42"/>
+      <c r="P44" s="43"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B46" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="12"/>
-    </row>
-    <row r="45" spans="1:16" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="23" t="s">
+      <c r="C46" s="12"/>
+    </row>
+    <row r="47" spans="1:16" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="24"/>
-      <c r="M45" s="24"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="65"/>
+      <c r="H47" s="65"/>
+      <c r="I47" s="65"/>
+      <c r="J47" s="65"/>
+      <c r="K47" s="65"/>
+      <c r="L47" s="65"/>
+      <c r="M47" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="M41:P41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="B39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="A34:P34"/>
-    <mergeCell ref="B45:M45"/>
+    <mergeCell ref="A36:P36"/>
+    <mergeCell ref="B47:M47"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="I1:M1"/>
@@ -3761,19 +4297,53 @@
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="D4:M4"/>
-    <mergeCell ref="A35:A42"/>
+    <mergeCell ref="A37:A44"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="B41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M43:P43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:P44"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="K43:L43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA792EB-955D-4449-A791-ADDEA67B871C}">
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3794,134 +4364,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="35"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="67" t="s">
+        <v>235</v>
+      </c>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="28"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="30"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="58"/>
       <c r="N1" s="15"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="35"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="67" t="s">
+        <v>196</v>
+      </c>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="70"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="30"/>
+      <c r="I2" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="58"/>
       <c r="N2" s="15"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="26" t="s">
-        <v>217</v>
-      </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="35"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="67" t="s">
+        <v>206</v>
+      </c>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="70"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="30"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="58"/>
       <c r="N3" s="15"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="35"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="70"/>
       <c r="N4" s="14"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
       <c r="P5" s="33"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -3982,11 +4552,11 @@
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>21</v>
@@ -4016,14 +4586,14 @@
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="7" t="s">
@@ -4048,14 +4618,14 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>173</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>174</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="7" t="s">
@@ -4078,14 +4648,14 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>176</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>177</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="7"/>
@@ -4108,19 +4678,19 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>179</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>180</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="7"/>
       <c r="J12" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K12" s="7">
         <v>30</v>
@@ -4140,14 +4710,14 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="9" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="7"/>
@@ -4168,14 +4738,14 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>183</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>184</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="7"/>
@@ -4196,14 +4766,14 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="7"/>
@@ -4404,247 +4974,281 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
       <c r="P22" s="33"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="22"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="62"/>
+      <c r="P24" s="63"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="36">
+      <c r="A25" s="27">
         <v>1</v>
       </c>
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="39"/>
-      <c r="D25" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
       <c r="G25" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H25" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="I25" s="32"/>
+      <c r="H25" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="I25" s="34"/>
       <c r="J25" s="33"/>
-      <c r="K25" s="40" t="s">
+      <c r="K25" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="L25" s="41"/>
-      <c r="M25" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="30"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="56" t="s">
+        <v>202</v>
+      </c>
+      <c r="N25" s="57"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="58"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="38" t="s">
+      <c r="A26" s="28"/>
+      <c r="B26" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="39"/>
-      <c r="D26" s="31" t="s">
+      <c r="C26" s="60"/>
+      <c r="D26" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
       <c r="G26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="31" t="s">
+      <c r="H26" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="I26" s="32"/>
+      <c r="I26" s="34"/>
       <c r="J26" s="33"/>
-      <c r="K26" s="40" t="s">
+      <c r="K26" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="L26" s="41"/>
-      <c r="M26" s="28" t="s">
+      <c r="L26" s="52"/>
+      <c r="M26" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="30"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="57"/>
+      <c r="P26" s="58"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
-      <c r="B27" s="38" t="s">
+      <c r="A27" s="28"/>
+      <c r="B27" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="39"/>
-      <c r="D27" s="31" t="s">
-        <v>214</v>
-      </c>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
       <c r="G27" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="H27" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="I27" s="32"/>
+      <c r="H27" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="I27" s="34"/>
       <c r="J27" s="33"/>
       <c r="K27" s="17"/>
       <c r="L27" s="18"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="30"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="58"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
-      <c r="B28" s="38" t="s">
+      <c r="A28" s="28"/>
+      <c r="B28" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="39"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
       <c r="J28" s="33"/>
-      <c r="K28" s="40" t="s">
+      <c r="K28" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="41"/>
-      <c r="M28" s="28" t="s">
+      <c r="L28" s="52"/>
+      <c r="M28" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="30"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="58"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
-      <c r="B29" s="42" t="s">
+      <c r="A29" s="28"/>
+      <c r="B29" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="43"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="44"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="49"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="37"/>
+      <c r="A30" s="28"/>
       <c r="B30" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="40" t="s">
+      <c r="C30" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="45"/>
-      <c r="E30" s="41"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="52"/>
       <c r="F30" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="40" t="s">
+      <c r="G30" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="41"/>
-      <c r="I30" s="40" t="s">
+      <c r="H30" s="52"/>
+      <c r="I30" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="41"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="46"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="47"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="55"/>
+      <c r="P30" s="54"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="37"/>
+      <c r="A31" s="28"/>
       <c r="B31" s="8">
         <v>1</v>
       </c>
-      <c r="C31" s="52" t="s">
-        <v>216</v>
-      </c>
-      <c r="D31" s="53"/>
-      <c r="E31" s="54"/>
+      <c r="C31" s="44" t="s">
+        <v>205</v>
+      </c>
+      <c r="D31" s="45"/>
+      <c r="E31" s="46"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="52" t="s">
+      <c r="G31" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="H31" s="54"/>
+      <c r="H31" s="46"/>
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="51"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="43"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="43"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="37"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="54"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="46"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="54"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="46"/>
       <c r="I32" s="3"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="51"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="50"/>
-      <c r="O32" s="50"/>
-      <c r="P32" s="51"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A22:P22"/>
+    <mergeCell ref="A24:P24"/>
+    <mergeCell ref="A25:A32"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
     <mergeCell ref="B29:J29"/>
     <mergeCell ref="K29:L29"/>
     <mergeCell ref="M29:P29"/>
@@ -4661,52 +5265,18 @@
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="K31:L31"/>
     <mergeCell ref="M31:P31"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A22:P22"/>
-    <mergeCell ref="A24:P24"/>
-    <mergeCell ref="A25:A32"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2266CBF-16D7-4305-8E93-0AAD229883C5}">
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A18"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4727,132 +5297,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="26" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="35"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
       <c r="M1" s="33"/>
       <c r="N1" s="16"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="26" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="35"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="70"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="30"/>
+      <c r="I2" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="58"/>
       <c r="N2" s="15"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="35"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="70"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="30"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="58"/>
       <c r="N3" s="15"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="35"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="67" t="s">
+        <v>238</v>
+      </c>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="70"/>
       <c r="N4" s="14"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
       <c r="P5" s="33"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -4913,11 +5485,11 @@
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>21</v>
@@ -4947,14 +5519,14 @@
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="9" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="7" t="s">
@@ -4986,10 +5558,12 @@
         <v>65</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H10" s="9"/>
-      <c r="I10" s="7"/>
+      <c r="I10" s="7" t="s">
+        <v>262</v>
+      </c>
       <c r="J10" s="9" t="s">
         <v>29</v>
       </c>
@@ -4998,7 +5572,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P10" s="1"/>
     </row>
@@ -5009,14 +5583,14 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="9" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="9" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="7"/>
@@ -5030,7 +5604,7 @@
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P11" s="1"/>
     </row>
@@ -5041,14 +5615,14 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="9" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="7"/>
@@ -5071,14 +5645,14 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>160</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>161</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="7"/>
@@ -5279,243 +5853,236 @@
       <c r="P19" s="1"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="22"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="62"/>
+      <c r="P21" s="63"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="36">
+      <c r="A22" s="27">
         <v>1</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="39"/>
-      <c r="D22" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
       <c r="G22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H22" s="31"/>
-      <c r="I22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="34"/>
       <c r="J22" s="33"/>
-      <c r="K22" s="40" t="s">
+      <c r="K22" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="L22" s="41"/>
-      <c r="M22" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="30"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="56" t="s">
+        <v>202</v>
+      </c>
+      <c r="N22" s="57"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="58"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
-      <c r="B23" s="38" t="s">
+      <c r="A23" s="28"/>
+      <c r="B23" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="39"/>
-      <c r="D23" s="31" t="s">
+      <c r="C23" s="60"/>
+      <c r="D23" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
       <c r="G23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H23" s="31" t="s">
+      <c r="H23" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="I23" s="32"/>
+      <c r="I23" s="34"/>
       <c r="J23" s="33"/>
-      <c r="K23" s="40" t="s">
+      <c r="K23" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="L23" s="41"/>
-      <c r="M23" s="28" t="s">
+      <c r="L23" s="52"/>
+      <c r="M23" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="30"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="58"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
-      <c r="B24" s="38" t="s">
+      <c r="A24" s="28"/>
+      <c r="B24" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="C24" s="39"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
       <c r="G24" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
       <c r="J24" s="33"/>
       <c r="K24" s="17"/>
       <c r="L24" s="18"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="30"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="58"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
-      <c r="B25" s="38" t="s">
+      <c r="A25" s="28"/>
+      <c r="B25" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="39"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
       <c r="J25" s="33"/>
-      <c r="K25" s="40" t="s">
+      <c r="K25" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="L25" s="41"/>
-      <c r="M25" s="28" t="s">
+      <c r="L25" s="52"/>
+      <c r="M25" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="30"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="58"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="42" t="s">
+      <c r="A26" s="28"/>
+      <c r="B26" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="44"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="49"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
+      <c r="A27" s="28"/>
       <c r="B27" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="40" t="s">
+      <c r="C27" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="45"/>
-      <c r="E27" s="41"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="52"/>
       <c r="F27" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="40" t="s">
+      <c r="G27" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="41"/>
-      <c r="I27" s="40" t="s">
+      <c r="H27" s="52"/>
+      <c r="I27" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="J27" s="41"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="47"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="55"/>
+      <c r="P27" s="54"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
+      <c r="A28" s="28"/>
       <c r="B28" s="8">
         <v>1</v>
       </c>
-      <c r="C28" s="52" t="s">
-        <v>216</v>
-      </c>
-      <c r="D28" s="53"/>
-      <c r="E28" s="54"/>
+      <c r="C28" s="44" t="s">
+        <v>205</v>
+      </c>
+      <c r="D28" s="45"/>
+      <c r="E28" s="46"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="52" t="s">
+      <c r="G28" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="H28" s="54"/>
+      <c r="H28" s="46"/>
       <c r="I28" s="3"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="50"/>
-      <c r="P28" s="51"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="43"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="54"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="46"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="54"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="46"/>
       <c r="I29" s="3"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="50"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="51"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="D4:M4"/>
     <mergeCell ref="A21:P21"/>
     <mergeCell ref="A22:A29"/>
     <mergeCell ref="B22:C22"/>
@@ -5532,26 +6099,33 @@
     <mergeCell ref="H24:J24"/>
     <mergeCell ref="M23:P23"/>
     <mergeCell ref="M24:P24"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:P29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8E42C9-C05B-4E62-A510-6D91D5B4B214}">
   <dimension ref="A1:P24"/>
   <sheetViews>
@@ -5577,132 +6151,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="26" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="35"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="28"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="30"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="58"/>
       <c r="N1" s="15"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="26" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="35"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="70"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="30"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="58"/>
       <c r="N2" s="15"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="35"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="70"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="30"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="58"/>
       <c r="N3" s="15"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="35"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="70"/>
       <c r="N4" s="14"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
       <c r="P5" s="33"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -5925,14 +6499,14 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="9" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="7" t="s">
@@ -5957,14 +6531,14 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="9" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="7" t="s">
@@ -6021,14 +6595,14 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="9" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="7" t="s">
@@ -6263,21 +6837,21 @@
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
       <c r="P24" s="33"/>
     </row>
   </sheetData>

--- a/nop-batch/model/nop-batch.orm.xlsx
+++ b/nop-batch/model/nop-batch.orm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-batch\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D513DD7-3D7E-45AA-BAA7-B2AE9ADECC95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6934ABCE-62A6-403A-957E-30F64A7E09B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="4" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="312">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -945,14 +945,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Worker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WORKER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CURRENT_TASK_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1082,18 +1074,6 @@
   </si>
   <si>
     <t>本任务的第几次执行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RETRY_CHUNK_COUNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Retry Chunk Count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重试分块次数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1250,6 +1230,94 @@
   <si>
     <t>异常结束</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESTART_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Restart Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重启时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORKER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Worker ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOW_STEP_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flow Step ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联流程步骤ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RETRY_ITEM_COUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Retry Item Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重试条目次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOAD_RETRY_COUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Load Retry Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重试加载次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTEGER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOAD_SKIP_COUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Load Skip Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载跳过数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>var</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2215,7 +2283,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>24</v>
@@ -2273,7 +2341,7 @@
         <v>75</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>82</v>
@@ -2762,7 +2830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC46440-21D3-4FE9-B17C-6C332CFF392A}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -2773,41 +2841,41 @@
         <v>2</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="32" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E1" s="33"/>
       <c r="F1" s="20" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="28"/>
       <c r="B2" s="30" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="32" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E2" s="33"/>
       <c r="F2" s="20" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="28"/>
       <c r="B3" s="30" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C3" s="31"/>
       <c r="D3" s="32"/>
@@ -2818,7 +2886,7 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="28"/>
       <c r="B4" s="35" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C4" s="36"/>
       <c r="D4" s="36"/>
@@ -2829,22 +2897,22 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
       <c r="B5" s="22" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D5" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="G5" s="23" t="s">
         <v>263</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>272</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2856,10 +2924,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
@@ -2873,10 +2941,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
@@ -2890,14 +2958,14 @@
         <v>20</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F8" s="24"/>
       <c r="G8" s="25" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2909,14 +2977,14 @@
         <v>30</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F9" s="24"/>
       <c r="G9" s="25" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2928,14 +2996,14 @@
         <v>40</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F10" s="24"/>
       <c r="G10" s="25" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2947,14 +3015,14 @@
         <v>50</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="25" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2966,14 +3034,14 @@
         <v>60</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F12" s="24"/>
       <c r="G12" s="25" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -3004,10 +3072,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49753E9A-158A-4EB9-A449-F2590B12608A}">
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3438,28 +3506,28 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
       <c r="O15" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="P15" s="1"/>
     </row>
@@ -3468,13 +3536,15 @@
         <v>9</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="C16" s="7" t="s">
+        <v>311</v>
+      </c>
       <c r="D16" s="9" t="s">
-        <v>219</v>
+        <v>293</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="9" t="s">
-        <v>218</v>
+        <v>294</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>217</v>
@@ -3502,14 +3572,14 @@
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="7"/>
@@ -3532,27 +3602,27 @@
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="9" t="s">
-        <v>64</v>
+        <v>295</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="9" t="s">
-        <v>65</v>
+        <v>296</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>164</v>
+        <v>297</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="7"/>
       <c r="J18" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K18" s="7"/>
+        <v>298</v>
+      </c>
+      <c r="K18" s="7">
+        <v>50</v>
+      </c>
       <c r="L18" s="7"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
-      <c r="O18" s="9" t="s">
-        <v>163</v>
-      </c>
+      <c r="O18" s="7"/>
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -3560,31 +3630,29 @@
         <v>12</v>
       </c>
       <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="C19" s="7" t="s">
+        <v>310</v>
+      </c>
       <c r="D19" s="9" t="s">
-        <v>209</v>
+        <v>290</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="9" t="s">
-        <v>211</v>
+        <v>291</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>161</v>
+        <v>292</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="7"/>
       <c r="J19" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K19" s="7">
-        <v>100</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
-      <c r="O19" s="7" t="s">
-        <v>165</v>
-      </c>
+      <c r="O19" s="7"/>
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -3594,27 +3662,27 @@
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="9" t="s">
-        <v>210</v>
+        <v>64</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="9" t="s">
-        <v>212</v>
+        <v>65</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="7"/>
       <c r="J20" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K20" s="7">
-        <v>500</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
-      <c r="O20" s="7"/>
+      <c r="O20" s="9" t="s">
+        <v>163</v>
+      </c>
       <c r="P20" s="1"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
@@ -3624,14 +3692,14 @@
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="9" t="s">
-        <v>158</v>
+        <v>209</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="9" t="s">
-        <v>159</v>
+        <v>211</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="7"/>
@@ -3639,12 +3707,14 @@
         <v>28</v>
       </c>
       <c r="K21" s="7">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="L21" s="7"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
-      <c r="O21" s="7"/>
+      <c r="O21" s="7" t="s">
+        <v>165</v>
+      </c>
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
@@ -3654,23 +3724,23 @@
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="9" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="9" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="H22" s="9"/>
-      <c r="I22" s="7" t="s">
-        <v>234</v>
-      </c>
+      <c r="I22" s="7"/>
       <c r="J22" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="K22" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="K22" s="7">
+        <v>500</v>
+      </c>
       <c r="L22" s="7"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
@@ -3684,23 +3754,23 @@
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="9" t="s">
-        <v>241</v>
+        <v>158</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="9" t="s">
-        <v>242</v>
+        <v>159</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>256</v>
+        <v>160</v>
       </c>
       <c r="H23" s="9"/>
-      <c r="I23" s="7" t="s">
-        <v>234</v>
-      </c>
+      <c r="I23" s="7"/>
       <c r="J23" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="K23" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="K23" s="7">
+        <v>4000</v>
+      </c>
       <c r="L23" s="7"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
@@ -3714,21 +3784,21 @@
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="9" t="s">
-        <v>253</v>
+        <v>186</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="9" t="s">
-        <v>254</v>
+        <v>187</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>255</v>
+        <v>188</v>
       </c>
       <c r="H24" s="9"/>
       <c r="I24" s="7" t="s">
-        <v>27</v>
+        <v>232</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
@@ -3744,18 +3814,18 @@
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="9" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J25" s="9" t="s">
         <v>63</v>
@@ -3774,21 +3844,21 @@
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="9" t="s">
-        <v>239</v>
+        <v>302</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="9" t="s">
-        <v>244</v>
+        <v>303</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>258</v>
+        <v>304</v>
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="7" t="s">
-        <v>234</v>
+        <v>305</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>63</v>
+        <v>306</v>
       </c>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
@@ -3804,21 +3874,21 @@
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="9" t="s">
-        <v>245</v>
+        <v>307</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="9" t="s">
-        <v>246</v>
+        <v>308</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>259</v>
+        <v>309</v>
       </c>
       <c r="H27" s="9"/>
       <c r="I27" s="7" t="s">
-        <v>261</v>
+        <v>305</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>260</v>
+        <v>63</v>
       </c>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
@@ -3834,23 +3904,21 @@
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="9" t="s">
-        <v>34</v>
+        <v>299</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="9" t="s">
-        <v>35</v>
+        <v>300</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>94</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="H28" s="9"/>
       <c r="I28" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
@@ -3866,27 +3934,23 @@
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="9" t="s">
-        <v>37</v>
+        <v>238</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="9" t="s">
-        <v>38</v>
+        <v>241</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>95</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="H29" s="9"/>
       <c r="I29" s="7" t="s">
-        <v>27</v>
+        <v>232</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K29" s="7">
-        <v>50</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="K29" s="7"/>
       <c r="L29" s="7"/>
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
@@ -3900,23 +3964,21 @@
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="9" t="s">
-        <v>41</v>
+        <v>237</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="9" t="s">
-        <v>42</v>
+        <v>242</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>97</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="H30" s="9"/>
       <c r="I30" s="7" t="s">
-        <v>27</v>
+        <v>232</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
@@ -3932,27 +3994,23 @@
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="9" t="s">
-        <v>45</v>
+        <v>243</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="9" t="s">
-        <v>46</v>
+        <v>244</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>96</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="H31" s="9"/>
       <c r="I31" s="7" t="s">
-        <v>27</v>
+        <v>256</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K31" s="7">
-        <v>50</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="K31" s="7"/>
       <c r="L31" s="7"/>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
@@ -3966,23 +4024,23 @@
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="9" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="9" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I32" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
@@ -3998,24 +4056,26 @@
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="9" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="9" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="I33" s="7"/>
+        <v>95</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="J33" s="9" t="s">
         <v>28</v>
       </c>
       <c r="K33" s="7">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="L33" s="7"/>
       <c r="M33" s="9"/>
@@ -4024,16 +4084,30 @@
       <c r="P33" s="1"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
+      <c r="A34" s="7">
+        <v>27</v>
+      </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="9"/>
+      <c r="D34" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
+      <c r="F34" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
       <c r="M34" s="9"/>
@@ -4041,249 +4115,365 @@
       <c r="O34" s="7"/>
       <c r="P34" s="1"/>
     </row>
-    <row r="35" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
+        <v>28</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K35" s="7">
+        <v>50</v>
+      </c>
+      <c r="L35" s="7"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="1"/>
+    </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="61" t="s">
+      <c r="A36" s="7">
+        <v>29</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="1"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>30</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="I37" s="7"/>
+      <c r="J37" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K37" s="7">
+        <v>200</v>
+      </c>
+      <c r="L37" s="7"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="1"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="1"/>
+    </row>
+    <row r="39" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="62"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="62"/>
-      <c r="I36" s="62"/>
-      <c r="J36" s="62"/>
-      <c r="K36" s="62"/>
-      <c r="L36" s="62"/>
-      <c r="M36" s="62"/>
-      <c r="N36" s="62"/>
-      <c r="O36" s="62"/>
-      <c r="P36" s="63"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="27">
+      <c r="B40" s="62"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="62"/>
+      <c r="J40" s="62"/>
+      <c r="K40" s="62"/>
+      <c r="L40" s="62"/>
+      <c r="M40" s="62"/>
+      <c r="N40" s="62"/>
+      <c r="O40" s="62"/>
+      <c r="P40" s="63"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="27">
         <v>1</v>
       </c>
-      <c r="B37" s="59" t="s">
+      <c r="B41" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="60"/>
-      <c r="D37" s="32" t="s">
-        <v>229</v>
-      </c>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="2" t="s">
+      <c r="C41" s="60"/>
+      <c r="D41" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H37" s="32"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="50" t="s">
+      <c r="H41" s="32"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="L37" s="52"/>
-      <c r="M37" s="56" t="s">
-        <v>230</v>
-      </c>
-      <c r="N37" s="57"/>
-      <c r="O37" s="57"/>
-      <c r="P37" s="58"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="28"/>
-      <c r="B38" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="60"/>
-      <c r="D38" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H38" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="I38" s="34"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="L38" s="52"/>
-      <c r="M38" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="N38" s="57"/>
-      <c r="O38" s="57"/>
-      <c r="P38" s="58"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="28"/>
-      <c r="B39" s="59" t="s">
-        <v>103</v>
-      </c>
-      <c r="C39" s="60"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="56"/>
-      <c r="N39" s="57"/>
-      <c r="O39" s="57"/>
-      <c r="P39" s="58"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="28"/>
-      <c r="B40" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" s="60"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="L40" s="52"/>
-      <c r="M40" s="56" t="s">
-        <v>107</v>
-      </c>
-      <c r="N40" s="57"/>
-      <c r="O40" s="57"/>
-      <c r="P40" s="58"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="28"/>
-      <c r="B41" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="49"/>
-      <c r="K41" s="47"/>
-      <c r="L41" s="49"/>
-      <c r="M41" s="47"/>
-      <c r="N41" s="48"/>
-      <c r="O41" s="48"/>
-      <c r="P41" s="49"/>
+      <c r="L41" s="52"/>
+      <c r="M41" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="N41" s="57"/>
+      <c r="O41" s="57"/>
+      <c r="P41" s="58"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="28"/>
-      <c r="B42" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C42" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42" s="51"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="H42" s="52"/>
-      <c r="I42" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="J42" s="52"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="54"/>
-      <c r="M42" s="53"/>
-      <c r="N42" s="55"/>
-      <c r="O42" s="55"/>
-      <c r="P42" s="54"/>
+      <c r="B42" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="60"/>
+      <c r="D42" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="I42" s="34"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="L42" s="52"/>
+      <c r="M42" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="N42" s="57"/>
+      <c r="O42" s="57"/>
+      <c r="P42" s="58"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="28"/>
-      <c r="B43" s="8">
-        <v>1</v>
-      </c>
-      <c r="C43" s="44" t="s">
-        <v>231</v>
-      </c>
-      <c r="D43" s="45"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="H43" s="46"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="41"/>
-      <c r="L43" s="43"/>
-      <c r="M43" s="41"/>
-      <c r="N43" s="42"/>
-      <c r="O43" s="42"/>
-      <c r="P43" s="43"/>
+      <c r="B43" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43" s="60"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="56"/>
+      <c r="N43" s="57"/>
+      <c r="O43" s="57"/>
+      <c r="P43" s="58"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
-      <c r="B44" s="44"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="46"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="41"/>
-      <c r="L44" s="43"/>
-      <c r="M44" s="41"/>
-      <c r="N44" s="42"/>
-      <c r="O44" s="42"/>
-      <c r="P44" s="43"/>
+      <c r="B44" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="60"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="L44" s="52"/>
+      <c r="M44" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="N44" s="57"/>
+      <c r="O44" s="57"/>
+      <c r="P44" s="58"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="28"/>
+      <c r="B45" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="48"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="48"/>
+      <c r="J45" s="49"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="49"/>
+      <c r="M45" s="47"/>
+      <c r="N45" s="48"/>
+      <c r="O45" s="48"/>
+      <c r="P45" s="49"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B46" s="12" t="s">
+      <c r="A46" s="28"/>
+      <c r="B46" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="51"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" s="52"/>
+      <c r="I46" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="J46" s="52"/>
+      <c r="K46" s="53"/>
+      <c r="L46" s="54"/>
+      <c r="M46" s="53"/>
+      <c r="N46" s="55"/>
+      <c r="O46" s="55"/>
+      <c r="P46" s="54"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="28"/>
+      <c r="B47" s="8">
+        <v>1</v>
+      </c>
+      <c r="C47" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="D47" s="45"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="H47" s="46"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="41"/>
+      <c r="L47" s="43"/>
+      <c r="M47" s="41"/>
+      <c r="N47" s="42"/>
+      <c r="O47" s="42"/>
+      <c r="P47" s="43"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="28"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="41"/>
+      <c r="L48" s="43"/>
+      <c r="M48" s="41"/>
+      <c r="N48" s="42"/>
+      <c r="O48" s="42"/>
+      <c r="P48" s="43"/>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B50" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C46" s="12"/>
-    </row>
-    <row r="47" spans="1:16" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="64" t="s">
+      <c r="C50" s="12"/>
+    </row>
+    <row r="51" spans="2:13" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="C47" s="65"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="65"/>
-      <c r="F47" s="65"/>
-      <c r="G47" s="65"/>
-      <c r="H47" s="65"/>
-      <c r="I47" s="65"/>
-      <c r="J47" s="65"/>
-      <c r="K47" s="65"/>
-      <c r="L47" s="65"/>
-      <c r="M47" s="65"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="65"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="65"/>
+      <c r="H51" s="65"/>
+      <c r="I51" s="65"/>
+      <c r="J51" s="65"/>
+      <c r="K51" s="65"/>
+      <c r="L51" s="65"/>
+      <c r="M51" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A36:P36"/>
-    <mergeCell ref="B47:M47"/>
+    <mergeCell ref="A40:P40"/>
+    <mergeCell ref="B51:M51"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="I1:M1"/>
@@ -4297,41 +4487,41 @@
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="D4:M4"/>
-    <mergeCell ref="A37:A44"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="A41:A48"/>
     <mergeCell ref="M41:P41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="H42:J42"/>
     <mergeCell ref="K42:L42"/>
     <mergeCell ref="M42:P42"/>
-    <mergeCell ref="B41:J41"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="H41:J41"/>
     <mergeCell ref="K41:L41"/>
     <mergeCell ref="M43:P43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:J44"/>
     <mergeCell ref="K44:L44"/>
     <mergeCell ref="M44:P44"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="M45:P45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="M46:P46"/>
+    <mergeCell ref="B45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M47:P47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:P48"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="K47:L47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4370,7 +4560,7 @@
       <c r="B1" s="69"/>
       <c r="C1" s="69"/>
       <c r="D1" s="67" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E1" s="68"/>
       <c r="F1" s="68"/>
@@ -4403,7 +4593,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="56" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J2" s="57"/>
       <c r="K2" s="57"/>
@@ -5028,7 +5218,7 @@
         <v>59</v>
       </c>
       <c r="H25" s="32" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I25" s="34"/>
       <c r="J25" s="33"/>
@@ -5373,7 +5563,7 @@
       <c r="B4" s="69"/>
       <c r="C4" s="69"/>
       <c r="D4" s="67" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E4" s="68"/>
       <c r="F4" s="68"/>
@@ -5562,7 +5752,7 @@
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>29</v>
@@ -6499,14 +6689,14 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="7" t="s">
@@ -6531,14 +6721,14 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="7" t="s">

--- a/nop-batch/model/nop-batch.orm.xlsx
+++ b/nop-batch/model/nop-batch.orm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-batch\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6934ABCE-62A6-403A-957E-30F64A7E09B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDEA1AC-79F4-4307-8A39-714918E4F8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="4" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="320">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1317,6 +1317,38 @@
   </si>
   <si>
     <t>var</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Created</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suspended</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Running</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Completed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Failed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cancelled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Killed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时挂起</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2830,8 +2862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC46440-21D3-4FE9-B17C-6C332CFF392A}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2929,43 +2961,51 @@
       <c r="E6" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="F6" s="24"/>
+      <c r="F6" s="24" t="s">
+        <v>312</v>
+      </c>
       <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="28"/>
       <c r="B7" s="21">
-        <v>2</v>
-      </c>
-      <c r="C7" s="21">
+        <v>3</v>
+      </c>
+      <c r="C7" s="26">
         <v>10</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
+        <v>286</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="28"/>
       <c r="B8" s="21">
-        <v>3</v>
-      </c>
-      <c r="C8" s="26">
+        <v>2</v>
+      </c>
+      <c r="C8" s="21">
         <v>20</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>286</v>
-      </c>
-      <c r="F8" s="24"/>
-      <c r="G8" s="25" t="s">
-        <v>287</v>
+        <v>271</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2982,7 +3022,9 @@
       <c r="E9" s="24" t="s">
         <v>274</v>
       </c>
-      <c r="F9" s="24"/>
+      <c r="F9" s="24" t="s">
+        <v>315</v>
+      </c>
       <c r="G9" s="25" t="s">
         <v>288</v>
       </c>
@@ -3001,7 +3043,9 @@
       <c r="E10" s="24" t="s">
         <v>276</v>
       </c>
-      <c r="F10" s="24"/>
+      <c r="F10" s="24" t="s">
+        <v>316</v>
+      </c>
       <c r="G10" s="25" t="s">
         <v>289</v>
       </c>
@@ -3020,7 +3064,9 @@
       <c r="E11" s="24" t="s">
         <v>281</v>
       </c>
-      <c r="F11" s="24"/>
+      <c r="F11" s="24" t="s">
+        <v>317</v>
+      </c>
       <c r="G11" s="25" t="s">
         <v>282</v>
       </c>
@@ -3039,7 +3085,9 @@
       <c r="E12" s="24" t="s">
         <v>278</v>
       </c>
-      <c r="F12" s="24"/>
+      <c r="F12" s="24" t="s">
+        <v>318</v>
+      </c>
       <c r="G12" s="25" t="s">
         <v>279</v>
       </c>
@@ -3074,8 +3122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49753E9A-158A-4EB9-A449-F2590B12608A}">
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/nop-batch/model/nop-batch.orm.xlsx
+++ b/nop-batch/model/nop-batch.orm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-batch\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDEA1AC-79F4-4307-8A39-714918E4F8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3208CB3-B453-48E5-9DA2-F98009D06BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="6" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="322">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -737,14 +737,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TASK_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Task ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>变量名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -893,10 +885,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>taskId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>no-web,kvTable</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -942,18 +930,6 @@
   </si>
   <si>
     <t>执行者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CURRENT_TASK_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Current Task</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前处理任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1349,6 +1325,38 @@
   </si>
   <si>
     <t>临时挂起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOW_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flow ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联流程ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BATCH_TASK_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batchTaskId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Batch Task ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Batch Task Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2161,10 +2169,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -2315,7 +2323,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>24</v>
@@ -2373,7 +2381,7 @@
         <v>75</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>82</v>
@@ -2653,7 +2661,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>101</v>
@@ -2862,52 +2870,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC46440-21D3-4FE9-B17C-6C332CFF392A}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="32" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E1" s="33"/>
       <c r="F1" s="20" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="28"/>
       <c r="B2" s="30" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="32" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E2" s="33"/>
       <c r="F2" s="20" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="28"/>
       <c r="B3" s="30" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C3" s="31"/>
       <c r="D3" s="32"/>
@@ -2918,7 +2926,7 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="28"/>
       <c r="B4" s="35" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C4" s="36"/>
       <c r="D4" s="36"/>
@@ -2929,22 +2937,22 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
       <c r="B5" s="22" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2956,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="G6" s="24"/>
     </row>
@@ -2975,16 +2983,16 @@
         <v>10</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2996,16 +3004,16 @@
         <v>20</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F8" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="G8" s="24" t="s">
         <v>313</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -3017,16 +3025,16 @@
         <v>30</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -3038,16 +3046,16 @@
         <v>40</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -3059,16 +3067,16 @@
         <v>50</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -3080,16 +3088,16 @@
         <v>60</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -3120,10 +3128,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49753E9A-158A-4EB9-A449-F2590B12608A}">
-  <dimension ref="A1:P51"/>
+  <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:A37"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3522,17 +3530,17 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="H14" s="9" t="s">
         <v>190</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>192</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="9" t="s">
@@ -3554,28 +3562,28 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
       <c r="O15" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="P15" s="1"/>
     </row>
@@ -3585,17 +3593,17 @@
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="9" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="7" t="s">
@@ -3620,14 +3628,14 @@
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="9" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="9" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="7"/>
@@ -3650,19 +3658,19 @@
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="9" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="9" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="7"/>
       <c r="J18" s="9" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="K18" s="7">
         <v>50</v>
@@ -3678,25 +3686,25 @@
         <v>12</v>
       </c>
       <c r="B19" s="7"/>
-      <c r="C19" s="7" t="s">
-        <v>310</v>
-      </c>
+      <c r="C19" s="7"/>
       <c r="D19" s="9" t="s">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="9" t="s">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="7"/>
       <c r="J19" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="K19" s="7"/>
+        <v>317</v>
+      </c>
+      <c r="K19" s="7">
+        <v>50</v>
+      </c>
       <c r="L19" s="7"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
@@ -3708,29 +3716,29 @@
         <v>13</v>
       </c>
       <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+      <c r="C20" s="7" t="s">
+        <v>304</v>
+      </c>
       <c r="D20" s="9" t="s">
-        <v>64</v>
+        <v>284</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="9" t="s">
-        <v>65</v>
+        <v>285</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>164</v>
+        <v>286</v>
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="7"/>
       <c r="J20" s="9" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
-      <c r="O20" s="9" t="s">
-        <v>163</v>
-      </c>
+      <c r="O20" s="7"/>
       <c r="P20" s="1"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
@@ -3740,28 +3748,26 @@
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="9" t="s">
-        <v>209</v>
+        <v>64</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="9" t="s">
-        <v>211</v>
+        <v>65</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="7"/>
       <c r="J21" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="7">
-        <v>100</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
-      <c r="O21" s="7" t="s">
-        <v>165</v>
+      <c r="O21" s="9" t="s">
+        <v>163</v>
       </c>
       <c r="P21" s="1"/>
     </row>
@@ -3772,14 +3778,14 @@
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="9" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="7"/>
@@ -3787,12 +3793,14 @@
         <v>28</v>
       </c>
       <c r="K22" s="7">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L22" s="7"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
-      <c r="O22" s="7"/>
+      <c r="O22" s="7" t="s">
+        <v>165</v>
+      </c>
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -3802,14 +3810,14 @@
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="9" t="s">
-        <v>158</v>
+        <v>207</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="9" t="s">
-        <v>159</v>
+        <v>209</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="7"/>
@@ -3817,7 +3825,7 @@
         <v>28</v>
       </c>
       <c r="K23" s="7">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="L23" s="7"/>
       <c r="M23" s="9"/>
@@ -3832,23 +3840,23 @@
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="9" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="9" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="H24" s="9"/>
-      <c r="I24" s="7" t="s">
-        <v>232</v>
-      </c>
+      <c r="I24" s="7"/>
       <c r="J24" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="K24" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="K24" s="7">
+        <v>4000</v>
+      </c>
       <c r="L24" s="7"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
@@ -3862,18 +3870,18 @@
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="9" t="s">
-        <v>239</v>
+        <v>184</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="9" t="s">
-        <v>240</v>
+        <v>185</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>251</v>
+        <v>186</v>
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="J25" s="9" t="s">
         <v>63</v>
@@ -3892,21 +3900,21 @@
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="9" t="s">
-        <v>302</v>
+        <v>233</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="9" t="s">
-        <v>303</v>
+        <v>234</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>304</v>
+        <v>245</v>
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="7" t="s">
-        <v>305</v>
+        <v>226</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>306</v>
+        <v>63</v>
       </c>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
@@ -3922,21 +3930,21 @@
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="9" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="9" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="H27" s="9"/>
       <c r="I27" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>63</v>
+        <v>300</v>
       </c>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
@@ -3952,21 +3960,21 @@
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="9" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="9" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H28" s="9"/>
       <c r="I28" s="7" t="s">
-        <v>27</v>
+        <v>299</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
@@ -3982,21 +3990,21 @@
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="9" t="s">
-        <v>238</v>
+        <v>293</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="9" t="s">
-        <v>241</v>
+        <v>294</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>252</v>
+        <v>295</v>
       </c>
       <c r="H29" s="9"/>
       <c r="I29" s="7" t="s">
-        <v>232</v>
+        <v>27</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
@@ -4012,18 +4020,18 @@
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="9" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="9" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H30" s="9"/>
       <c r="I30" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="J30" s="9" t="s">
         <v>63</v>
@@ -4042,21 +4050,21 @@
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="9" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="9" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="H31" s="9"/>
       <c r="I31" s="7" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>255</v>
+        <v>63</v>
       </c>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
@@ -4072,23 +4080,21 @@
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="9" t="s">
-        <v>34</v>
+        <v>237</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="9" t="s">
-        <v>35</v>
+        <v>238</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>94</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="H32" s="9"/>
       <c r="I32" s="7" t="s">
-        <v>27</v>
+        <v>250</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>63</v>
+        <v>249</v>
       </c>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
@@ -4104,27 +4110,25 @@
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I33" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K33" s="7">
-        <v>50</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="K33" s="7"/>
       <c r="L33" s="7"/>
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
@@ -4138,25 +4142,27 @@
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I34" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="K34" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="K34" s="7">
+        <v>50</v>
+      </c>
       <c r="L34" s="7"/>
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
@@ -4170,27 +4176,25 @@
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I35" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K35" s="7">
-        <v>50</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="K35" s="7"/>
       <c r="L35" s="7"/>
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
@@ -4204,25 +4208,27 @@
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I36" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="K36" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="K36" s="7">
+        <v>50</v>
+      </c>
       <c r="L36" s="7"/>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
@@ -4236,25 +4242,25 @@
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="I37" s="7"/>
+        <v>98</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="J37" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K37" s="7">
-        <v>200</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="K37" s="7"/>
       <c r="L37" s="7"/>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
@@ -4262,99 +4268,101 @@
       <c r="P37" s="1"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
+      <c r="A38" s="7">
+        <v>31</v>
+      </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
-      <c r="D38" s="9"/>
+      <c r="D38" s="9" t="s">
+        <v>51</v>
+      </c>
       <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
+      <c r="F38" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>106</v>
+      </c>
       <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
+      <c r="J38" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K38" s="7">
+        <v>200</v>
+      </c>
       <c r="L38" s="7"/>
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
       <c r="O38" s="7"/>
       <c r="P38" s="1"/>
     </row>
-    <row r="39" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="61" t="s">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="1"/>
+    </row>
+    <row r="40" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="62"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="62"/>
-      <c r="J40" s="62"/>
-      <c r="K40" s="62"/>
-      <c r="L40" s="62"/>
-      <c r="M40" s="62"/>
-      <c r="N40" s="62"/>
-      <c r="O40" s="62"/>
-      <c r="P40" s="63"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="27">
+      <c r="B41" s="62"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="62"/>
+      <c r="H41" s="62"/>
+      <c r="I41" s="62"/>
+      <c r="J41" s="62"/>
+      <c r="K41" s="62"/>
+      <c r="L41" s="62"/>
+      <c r="M41" s="62"/>
+      <c r="N41" s="62"/>
+      <c r="O41" s="62"/>
+      <c r="P41" s="63"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="27">
         <v>1</v>
       </c>
-      <c r="B41" s="59" t="s">
+      <c r="B42" s="59" t="s">
         <v>14</v>
-      </c>
-      <c r="C41" s="60"/>
-      <c r="D41" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H41" s="32"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="L41" s="52"/>
-      <c r="M41" s="56" t="s">
-        <v>228</v>
-      </c>
-      <c r="N41" s="57"/>
-      <c r="O41" s="57"/>
-      <c r="P41" s="58"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="28"/>
-      <c r="B42" s="59" t="s">
-        <v>4</v>
       </c>
       <c r="C42" s="60"/>
       <c r="D42" s="32" t="s">
-        <v>123</v>
+        <v>221</v>
       </c>
       <c r="E42" s="34"/>
       <c r="F42" s="34"/>
       <c r="G42" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H42" s="32" t="s">
-        <v>224</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="H42" s="32"/>
       <c r="I42" s="34"/>
       <c r="J42" s="33"/>
       <c r="K42" s="50" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="L42" s="52"/>
       <c r="M42" s="56" t="s">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="N42" s="57"/>
       <c r="O42" s="57"/>
@@ -4363,21 +4371,29 @@
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="28"/>
       <c r="B43" s="59" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="C43" s="60"/>
-      <c r="D43" s="32"/>
+      <c r="D43" s="32" t="s">
+        <v>123</v>
+      </c>
       <c r="E43" s="34"/>
       <c r="F43" s="34"/>
-      <c r="G43" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="H43" s="34"/>
+      <c r="G43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="32" t="s">
+        <v>218</v>
+      </c>
       <c r="I43" s="34"/>
       <c r="J43" s="33"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="18"/>
-      <c r="M43" s="56"/>
+      <c r="K43" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="L43" s="52"/>
+      <c r="M43" s="56" t="s">
+        <v>73</v>
+      </c>
       <c r="N43" s="57"/>
       <c r="O43" s="57"/>
       <c r="P43" s="58"/>
@@ -4385,107 +4401,111 @@
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="59" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="C44" s="60"/>
       <c r="D44" s="32"/>
       <c r="E44" s="34"/>
       <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
+      <c r="G44" s="19" t="s">
+        <v>104</v>
+      </c>
       <c r="H44" s="34"/>
       <c r="I44" s="34"/>
       <c r="J44" s="33"/>
-      <c r="K44" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="L44" s="52"/>
-      <c r="M44" s="56" t="s">
-        <v>107</v>
-      </c>
+      <c r="K44" s="17"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="56"/>
       <c r="N44" s="57"/>
       <c r="O44" s="57"/>
       <c r="P44" s="58"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
-      <c r="B45" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="C45" s="48"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="48"/>
-      <c r="H45" s="48"/>
-      <c r="I45" s="48"/>
-      <c r="J45" s="49"/>
-      <c r="K45" s="47"/>
-      <c r="L45" s="49"/>
-      <c r="M45" s="47"/>
-      <c r="N45" s="48"/>
-      <c r="O45" s="48"/>
-      <c r="P45" s="49"/>
+      <c r="B45" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="60"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="L45" s="52"/>
+      <c r="M45" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="N45" s="57"/>
+      <c r="O45" s="57"/>
+      <c r="P45" s="58"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="28"/>
-      <c r="B46" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C46" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" s="51"/>
-      <c r="E46" s="52"/>
-      <c r="F46" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46" s="52"/>
-      <c r="I46" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="J46" s="52"/>
-      <c r="K46" s="53"/>
-      <c r="L46" s="54"/>
-      <c r="M46" s="53"/>
-      <c r="N46" s="55"/>
-      <c r="O46" s="55"/>
-      <c r="P46" s="54"/>
+      <c r="B46" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="48"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="48"/>
+      <c r="J46" s="49"/>
+      <c r="K46" s="47"/>
+      <c r="L46" s="49"/>
+      <c r="M46" s="47"/>
+      <c r="N46" s="48"/>
+      <c r="O46" s="48"/>
+      <c r="P46" s="49"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="28"/>
-      <c r="B47" s="8">
-        <v>1</v>
-      </c>
-      <c r="C47" s="44" t="s">
-        <v>229</v>
-      </c>
-      <c r="D47" s="45"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="H47" s="46"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="41"/>
-      <c r="L47" s="43"/>
-      <c r="M47" s="41"/>
-      <c r="N47" s="42"/>
-      <c r="O47" s="42"/>
-      <c r="P47" s="43"/>
+      <c r="B47" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="51"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" s="52"/>
+      <c r="I47" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="J47" s="52"/>
+      <c r="K47" s="53"/>
+      <c r="L47" s="54"/>
+      <c r="M47" s="53"/>
+      <c r="N47" s="55"/>
+      <c r="O47" s="55"/>
+      <c r="P47" s="54"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="28"/>
-      <c r="B48" s="44"/>
-      <c r="C48" s="45"/>
+      <c r="B48" s="8">
+        <v>1</v>
+      </c>
+      <c r="C48" s="44" t="s">
+        <v>223</v>
+      </c>
       <c r="D48" s="45"/>
       <c r="E48" s="46"/>
       <c r="F48" s="3"/>
-      <c r="G48" s="44"/>
+      <c r="G48" s="44" t="s">
+        <v>60</v>
+      </c>
       <c r="H48" s="46"/>
       <c r="I48" s="3"/>
       <c r="J48" s="4"/>
@@ -4496,32 +4516,50 @@
       <c r="O48" s="42"/>
       <c r="P48" s="43"/>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B50" s="12" t="s">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="28"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="46"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="41"/>
+      <c r="L49" s="43"/>
+      <c r="M49" s="41"/>
+      <c r="N49" s="42"/>
+      <c r="O49" s="42"/>
+      <c r="P49" s="43"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B51" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C50" s="12"/>
-    </row>
-    <row r="51" spans="2:13" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="64" t="s">
+      <c r="C51" s="12"/>
+    </row>
+    <row r="52" spans="1:16" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="C51" s="65"/>
-      <c r="D51" s="65"/>
-      <c r="E51" s="65"/>
-      <c r="F51" s="65"/>
-      <c r="G51" s="65"/>
-      <c r="H51" s="65"/>
-      <c r="I51" s="65"/>
-      <c r="J51" s="65"/>
-      <c r="K51" s="65"/>
-      <c r="L51" s="65"/>
-      <c r="M51" s="65"/>
+      <c r="C52" s="65"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="65"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="65"/>
+      <c r="H52" s="65"/>
+      <c r="I52" s="65"/>
+      <c r="J52" s="65"/>
+      <c r="K52" s="65"/>
+      <c r="L52" s="65"/>
+      <c r="M52" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A40:P40"/>
-    <mergeCell ref="B51:M51"/>
+    <mergeCell ref="A41:P41"/>
+    <mergeCell ref="B52:M52"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="I1:M1"/>
@@ -4535,41 +4573,41 @@
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="D4:M4"/>
-    <mergeCell ref="A41:A48"/>
-    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="A42:A49"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:P43"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="D42:F42"/>
     <mergeCell ref="H42:J42"/>
     <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M43:P43"/>
+    <mergeCell ref="M44:P44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:P45"/>
     <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="M44:P44"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="M45:P45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="M46:P46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="M47:P47"/>
+    <mergeCell ref="B46:J46"/>
     <mergeCell ref="K46:L46"/>
-    <mergeCell ref="M46:P46"/>
-    <mergeCell ref="B45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M47:P47"/>
-    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="M48:P48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="C48:E48"/>
     <mergeCell ref="G48:H48"/>
     <mergeCell ref="K48:L48"/>
-    <mergeCell ref="M48:P48"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="K47:L47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4581,7 +4619,7 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4608,7 +4646,7 @@
       <c r="B1" s="69"/>
       <c r="C1" s="69"/>
       <c r="D1" s="67" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E1" s="68"/>
       <c r="F1" s="68"/>
@@ -4632,7 +4670,7 @@
       <c r="B2" s="69"/>
       <c r="C2" s="69"/>
       <c r="D2" s="67" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E2" s="68"/>
       <c r="F2" s="68"/>
@@ -4641,7 +4679,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="56" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="J2" s="57"/>
       <c r="K2" s="57"/>
@@ -4658,7 +4696,7 @@
       <c r="B3" s="69"/>
       <c r="C3" s="69"/>
       <c r="D3" s="67" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E3" s="68"/>
       <c r="F3" s="68"/>
@@ -4790,11 +4828,11 @@
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="9" t="s">
-        <v>166</v>
+        <v>318</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="9" t="s">
-        <v>166</v>
+        <v>321</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>21</v>
@@ -4824,14 +4862,14 @@
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="7" t="s">
@@ -4856,14 +4894,14 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="7" t="s">
@@ -4886,14 +4924,14 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="7"/>
@@ -4916,19 +4954,19 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="7"/>
       <c r="J12" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K12" s="7">
         <v>30</v>
@@ -4948,14 +4986,14 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="7"/>
@@ -4976,14 +5014,14 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="7"/>
@@ -5004,14 +5042,14 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="7"/>
@@ -5258,7 +5296,7 @@
       </c>
       <c r="C25" s="60"/>
       <c r="D25" s="32" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E25" s="34"/>
       <c r="F25" s="34"/>
@@ -5266,7 +5304,7 @@
         <v>59</v>
       </c>
       <c r="H25" s="32" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="I25" s="34"/>
       <c r="J25" s="33"/>
@@ -5275,7 +5313,7 @@
       </c>
       <c r="L25" s="52"/>
       <c r="M25" s="56" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="N25" s="57"/>
       <c r="O25" s="57"/>
@@ -5318,7 +5356,7 @@
       </c>
       <c r="C27" s="60"/>
       <c r="D27" s="32" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E27" s="34"/>
       <c r="F27" s="34"/>
@@ -5326,7 +5364,7 @@
         <v>104</v>
       </c>
       <c r="H27" s="34" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I27" s="34"/>
       <c r="J27" s="33"/>
@@ -5415,7 +5453,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="44" t="s">
-        <v>205</v>
+        <v>319</v>
       </c>
       <c r="D31" s="45"/>
       <c r="E31" s="46"/>
@@ -5513,8 +5551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2266CBF-16D7-4305-8E93-0AAD229883C5}">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5574,7 +5612,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="56" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J2" s="57"/>
       <c r="K2" s="57"/>
@@ -5611,7 +5649,7 @@
       <c r="B4" s="69"/>
       <c r="C4" s="69"/>
       <c r="D4" s="67" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E4" s="68"/>
       <c r="F4" s="68"/>
@@ -5723,11 +5761,11 @@
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="9" t="s">
-        <v>166</v>
+        <v>318</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="9" t="s">
-        <v>167</v>
+        <v>320</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>21</v>
@@ -5757,14 +5795,14 @@
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="9" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="7" t="s">
@@ -5800,7 +5838,7 @@
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>29</v>
@@ -5821,11 +5859,11 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="9" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="9" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>161</v>
@@ -5853,11 +5891,11 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="9" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>162</v>
@@ -6119,7 +6157,7 @@
       </c>
       <c r="C22" s="60"/>
       <c r="D22" s="32" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E22" s="34"/>
       <c r="F22" s="34"/>
@@ -6134,7 +6172,7 @@
       </c>
       <c r="L22" s="52"/>
       <c r="M22" s="56" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="N22" s="57"/>
       <c r="O22" s="57"/>
@@ -6270,7 +6308,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="44" t="s">
-        <v>205</v>
+        <v>319</v>
       </c>
       <c r="D28" s="45"/>
       <c r="E28" s="46"/>
@@ -6368,7 +6406,7 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="L13" sqref="L13:O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6737,14 +6775,14 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="9" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="7" t="s">
@@ -6769,14 +6807,14 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="s">
-        <v>218</v>
+        <v>318</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="9" t="s">
-        <v>219</v>
+        <v>320</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>220</v>
+        <v>118</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="7" t="s">
@@ -6815,13 +6853,13 @@
         <v>27</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K15" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="K15" s="7">
+        <v>10</v>
+      </c>
       <c r="L15" s="7"/>
-      <c r="M15" s="9" t="s">
-        <v>133</v>
-      </c>
+      <c r="M15" s="9"/>
       <c r="N15" s="9"/>
       <c r="O15" s="7"/>
       <c r="P15" s="1"/>
@@ -6833,14 +6871,14 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="9" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="7" t="s">

--- a/nop-batch/model/nop-batch.orm.xlsx
+++ b/nop-batch/model/nop-batch.orm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-batch\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3208CB3-B453-48E5-9DA2-F98009D06BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8F9129-E29E-42E6-9EA2-BE44CB205EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="6" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="4" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="323">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1357,6 +1357,10 @@
   </si>
   <si>
     <t>Batch Task Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>var</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1720,6 +1724,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1737,78 +1813,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3130,8 +3134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49753E9A-158A-4EB9-A449-F2590B12608A}">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:A38"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="AC29" sqref="AC29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3152,91 +3156,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="67" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="56"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="58"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="51"/>
       <c r="N1" s="15"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="67" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="56" t="s">
+      <c r="I2" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="58"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
       <c r="N2" s="15"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="58"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="51"/>
       <c r="N3" s="15"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="70"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="53"/>
       <c r="N4" s="14"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -3260,24 +3264,24 @@
       <c r="P5" s="33"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -3656,7 +3660,9 @@
         <v>11</v>
       </c>
       <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="C18" s="7" t="s">
+        <v>305</v>
+      </c>
       <c r="D18" s="9" t="s">
         <v>289</v>
       </c>
@@ -3686,7 +3692,9 @@
         <v>12</v>
       </c>
       <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="C19" s="7" t="s">
+        <v>322</v>
+      </c>
       <c r="D19" s="9" t="s">
         <v>314</v>
       </c>
@@ -4319,33 +4327,33 @@
     </row>
     <row r="40" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="61" t="s">
+      <c r="A41" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="62"/>
-      <c r="C41" s="62"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="62"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="62"/>
-      <c r="J41" s="62"/>
-      <c r="K41" s="62"/>
-      <c r="L41" s="62"/>
-      <c r="M41" s="62"/>
-      <c r="N41" s="62"/>
-      <c r="O41" s="62"/>
-      <c r="P41" s="63"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="42"/>
+      <c r="N41" s="42"/>
+      <c r="O41" s="42"/>
+      <c r="P41" s="43"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="27">
         <v>1</v>
       </c>
-      <c r="B42" s="59" t="s">
+      <c r="B42" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="60"/>
+      <c r="C42" s="55"/>
       <c r="D42" s="32" t="s">
         <v>221</v>
       </c>
@@ -4357,23 +4365,23 @@
       <c r="H42" s="32"/>
       <c r="I42" s="34"/>
       <c r="J42" s="33"/>
-      <c r="K42" s="50" t="s">
+      <c r="K42" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="L42" s="52"/>
-      <c r="M42" s="56" t="s">
+      <c r="L42" s="57"/>
+      <c r="M42" s="49" t="s">
         <v>222</v>
       </c>
-      <c r="N42" s="57"/>
-      <c r="O42" s="57"/>
-      <c r="P42" s="58"/>
+      <c r="N42" s="50"/>
+      <c r="O42" s="50"/>
+      <c r="P42" s="51"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="28"/>
-      <c r="B43" s="59" t="s">
+      <c r="B43" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="60"/>
+      <c r="C43" s="55"/>
       <c r="D43" s="32" t="s">
         <v>123</v>
       </c>
@@ -4387,23 +4395,23 @@
       </c>
       <c r="I43" s="34"/>
       <c r="J43" s="33"/>
-      <c r="K43" s="50" t="s">
+      <c r="K43" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="L43" s="52"/>
-      <c r="M43" s="56" t="s">
+      <c r="L43" s="57"/>
+      <c r="M43" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="N43" s="57"/>
-      <c r="O43" s="57"/>
-      <c r="P43" s="58"/>
+      <c r="N43" s="50"/>
+      <c r="O43" s="50"/>
+      <c r="P43" s="51"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
-      <c r="B44" s="59" t="s">
+      <c r="B44" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="C44" s="60"/>
+      <c r="C44" s="55"/>
       <c r="D44" s="32"/>
       <c r="E44" s="34"/>
       <c r="F44" s="34"/>
@@ -4415,17 +4423,17 @@
       <c r="J44" s="33"/>
       <c r="K44" s="17"/>
       <c r="L44" s="18"/>
-      <c r="M44" s="56"/>
-      <c r="N44" s="57"/>
-      <c r="O44" s="57"/>
-      <c r="P44" s="58"/>
+      <c r="M44" s="49"/>
+      <c r="N44" s="50"/>
+      <c r="O44" s="50"/>
+      <c r="P44" s="51"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
-      <c r="B45" s="59" t="s">
+      <c r="B45" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="60"/>
+      <c r="C45" s="55"/>
       <c r="D45" s="32"/>
       <c r="E45" s="34"/>
       <c r="F45" s="34"/>
@@ -4433,106 +4441,106 @@
       <c r="H45" s="34"/>
       <c r="I45" s="34"/>
       <c r="J45" s="33"/>
-      <c r="K45" s="50" t="s">
+      <c r="K45" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="L45" s="52"/>
-      <c r="M45" s="56" t="s">
+      <c r="L45" s="57"/>
+      <c r="M45" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="N45" s="57"/>
-      <c r="O45" s="57"/>
-      <c r="P45" s="58"/>
+      <c r="N45" s="50"/>
+      <c r="O45" s="50"/>
+      <c r="P45" s="51"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="28"/>
-      <c r="B46" s="47" t="s">
+      <c r="B46" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="C46" s="48"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="48"/>
-      <c r="H46" s="48"/>
-      <c r="I46" s="48"/>
-      <c r="J46" s="49"/>
-      <c r="K46" s="47"/>
-      <c r="L46" s="49"/>
-      <c r="M46" s="47"/>
-      <c r="N46" s="48"/>
-      <c r="O46" s="48"/>
-      <c r="P46" s="49"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="59"/>
+      <c r="I46" s="59"/>
+      <c r="J46" s="60"/>
+      <c r="K46" s="58"/>
+      <c r="L46" s="60"/>
+      <c r="M46" s="58"/>
+      <c r="N46" s="59"/>
+      <c r="O46" s="59"/>
+      <c r="P46" s="60"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="28"/>
       <c r="B47" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="50" t="s">
+      <c r="C47" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="51"/>
-      <c r="E47" s="52"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="57"/>
       <c r="F47" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="50" t="s">
+      <c r="G47" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="H47" s="52"/>
-      <c r="I47" s="50" t="s">
+      <c r="H47" s="57"/>
+      <c r="I47" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="J47" s="52"/>
-      <c r="K47" s="53"/>
-      <c r="L47" s="54"/>
-      <c r="M47" s="53"/>
-      <c r="N47" s="55"/>
-      <c r="O47" s="55"/>
-      <c r="P47" s="54"/>
+      <c r="J47" s="57"/>
+      <c r="K47" s="62"/>
+      <c r="L47" s="63"/>
+      <c r="M47" s="62"/>
+      <c r="N47" s="64"/>
+      <c r="O47" s="64"/>
+      <c r="P47" s="63"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="28"/>
       <c r="B48" s="8">
         <v>1</v>
       </c>
-      <c r="C48" s="44" t="s">
+      <c r="C48" s="68" t="s">
         <v>223</v>
       </c>
-      <c r="D48" s="45"/>
-      <c r="E48" s="46"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="70"/>
       <c r="F48" s="3"/>
-      <c r="G48" s="44" t="s">
+      <c r="G48" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="H48" s="46"/>
+      <c r="H48" s="70"/>
       <c r="I48" s="3"/>
       <c r="J48" s="4"/>
-      <c r="K48" s="41"/>
-      <c r="L48" s="43"/>
-      <c r="M48" s="41"/>
-      <c r="N48" s="42"/>
-      <c r="O48" s="42"/>
-      <c r="P48" s="43"/>
+      <c r="K48" s="65"/>
+      <c r="L48" s="67"/>
+      <c r="M48" s="65"/>
+      <c r="N48" s="66"/>
+      <c r="O48" s="66"/>
+      <c r="P48" s="67"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="28"/>
-      <c r="B49" s="44"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="45"/>
-      <c r="E49" s="46"/>
+      <c r="B49" s="68"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="70"/>
       <c r="F49" s="3"/>
-      <c r="G49" s="44"/>
-      <c r="H49" s="46"/>
+      <c r="G49" s="68"/>
+      <c r="H49" s="70"/>
       <c r="I49" s="3"/>
       <c r="J49" s="4"/>
-      <c r="K49" s="41"/>
-      <c r="L49" s="43"/>
-      <c r="M49" s="41"/>
-      <c r="N49" s="42"/>
-      <c r="O49" s="42"/>
-      <c r="P49" s="43"/>
+      <c r="K49" s="65"/>
+      <c r="L49" s="67"/>
+      <c r="M49" s="65"/>
+      <c r="N49" s="66"/>
+      <c r="O49" s="66"/>
+      <c r="P49" s="67"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B51" s="12" t="s">
@@ -4541,23 +4549,57 @@
       <c r="C51" s="12"/>
     </row>
     <row r="52" spans="1:16" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="64" t="s">
+      <c r="B52" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="C52" s="65"/>
-      <c r="D52" s="65"/>
-      <c r="E52" s="65"/>
-      <c r="F52" s="65"/>
-      <c r="G52" s="65"/>
-      <c r="H52" s="65"/>
-      <c r="I52" s="65"/>
-      <c r="J52" s="65"/>
-      <c r="K52" s="65"/>
-      <c r="L52" s="65"/>
-      <c r="M52" s="65"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="45"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="45"/>
+      <c r="J52" s="45"/>
+      <c r="K52" s="45"/>
+      <c r="L52" s="45"/>
+      <c r="M52" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="M48:P48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M46:P46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="M47:P47"/>
+    <mergeCell ref="B46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="M44:P44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:P45"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:P43"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="K42:L42"/>
     <mergeCell ref="A41:P41"/>
     <mergeCell ref="B52:M52"/>
     <mergeCell ref="A6:P6"/>
@@ -4574,40 +4616,6 @@
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="D4:M4"/>
     <mergeCell ref="A42:A49"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:P43"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M44:P44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:P45"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="M46:P46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="M47:P47"/>
-    <mergeCell ref="B46:J46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="M48:P48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="K48:L48"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4640,93 +4648,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="67" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="70"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="53"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="56"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="58"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="51"/>
       <c r="N1" s="15"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="67" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="47" t="s">
         <v>194</v>
       </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="70"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="56" t="s">
+      <c r="I2" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="58"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
       <c r="N2" s="15"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="67" t="s">
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="47" t="s">
         <v>203</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="70"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="58"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="51"/>
       <c r="N3" s="15"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="70"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="53"/>
       <c r="N4" s="14"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -4750,24 +4758,24 @@
       <c r="P5" s="33"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -5268,33 +5276,33 @@
       <c r="P22" s="33"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="61" t="s">
+      <c r="A24" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="62"/>
-      <c r="N24" s="62"/>
-      <c r="O24" s="62"/>
-      <c r="P24" s="63"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="43"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="27">
         <v>1</v>
       </c>
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="60"/>
+      <c r="C25" s="55"/>
       <c r="D25" s="32" t="s">
         <v>199</v>
       </c>
@@ -5308,23 +5316,23 @@
       </c>
       <c r="I25" s="34"/>
       <c r="J25" s="33"/>
-      <c r="K25" s="50" t="s">
+      <c r="K25" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="L25" s="52"/>
-      <c r="M25" s="56" t="s">
+      <c r="L25" s="57"/>
+      <c r="M25" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="N25" s="57"/>
-      <c r="O25" s="57"/>
-      <c r="P25" s="58"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="51"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="28"/>
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="60"/>
+      <c r="C26" s="55"/>
       <c r="D26" s="32" t="s">
         <v>118</v>
       </c>
@@ -5338,23 +5346,23 @@
       </c>
       <c r="I26" s="34"/>
       <c r="J26" s="33"/>
-      <c r="K26" s="50" t="s">
+      <c r="K26" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="L26" s="52"/>
-      <c r="M26" s="56" t="s">
+      <c r="L26" s="57"/>
+      <c r="M26" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="N26" s="57"/>
-      <c r="O26" s="57"/>
-      <c r="P26" s="58"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="51"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="28"/>
-      <c r="B27" s="59" t="s">
+      <c r="B27" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="60"/>
+      <c r="C27" s="55"/>
       <c r="D27" s="32" t="s">
         <v>201</v>
       </c>
@@ -5370,17 +5378,17 @@
       <c r="J27" s="33"/>
       <c r="K27" s="17"/>
       <c r="L27" s="18"/>
-      <c r="M27" s="56"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="58"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="51"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="28"/>
-      <c r="B28" s="59" t="s">
+      <c r="B28" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="60"/>
+      <c r="C28" s="55"/>
       <c r="D28" s="32"/>
       <c r="E28" s="34"/>
       <c r="F28" s="34"/>
@@ -5388,121 +5396,131 @@
       <c r="H28" s="34"/>
       <c r="I28" s="34"/>
       <c r="J28" s="33"/>
-      <c r="K28" s="50" t="s">
+      <c r="K28" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="52"/>
-      <c r="M28" s="56" t="s">
+      <c r="L28" s="57"/>
+      <c r="M28" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="N28" s="57"/>
-      <c r="O28" s="57"/>
-      <c r="P28" s="58"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="51"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="28"/>
-      <c r="B29" s="47" t="s">
+      <c r="B29" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="48"/>
-      <c r="P29" s="49"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="58"/>
+      <c r="N29" s="59"/>
+      <c r="O29" s="59"/>
+      <c r="P29" s="60"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="28"/>
       <c r="B30" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="50" t="s">
+      <c r="C30" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="51"/>
-      <c r="E30" s="52"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="57"/>
       <c r="F30" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="50" t="s">
+      <c r="G30" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="52"/>
-      <c r="I30" s="50" t="s">
+      <c r="H30" s="57"/>
+      <c r="I30" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="52"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="54"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="55"/>
-      <c r="O30" s="55"/>
-      <c r="P30" s="54"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="62"/>
+      <c r="N30" s="64"/>
+      <c r="O30" s="64"/>
+      <c r="P30" s="63"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="28"/>
       <c r="B31" s="8">
         <v>1</v>
       </c>
-      <c r="C31" s="44" t="s">
+      <c r="C31" s="68" t="s">
         <v>319</v>
       </c>
-      <c r="D31" s="45"/>
-      <c r="E31" s="46"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="70"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="44" t="s">
+      <c r="G31" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="H31" s="46"/>
+      <c r="H31" s="70"/>
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="43"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="42"/>
-      <c r="P31" s="43"/>
+      <c r="K31" s="65"/>
+      <c r="L31" s="67"/>
+      <c r="M31" s="65"/>
+      <c r="N31" s="66"/>
+      <c r="O31" s="66"/>
+      <c r="P31" s="67"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="28"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="46"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="70"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="46"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="70"/>
       <c r="I32" s="3"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="42"/>
-      <c r="O32" s="42"/>
-      <c r="P32" s="43"/>
+      <c r="K32" s="65"/>
+      <c r="L32" s="67"/>
+      <c r="M32" s="65"/>
+      <c r="N32" s="66"/>
+      <c r="O32" s="66"/>
+      <c r="P32" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A22:P22"/>
     <mergeCell ref="A24:P24"/>
@@ -5519,28 +5537,18 @@
     <mergeCell ref="M26:P26"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5551,7 +5559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2266CBF-16D7-4305-8E93-0AAD229883C5}">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B29" sqref="B29:E29"/>
     </sheetView>
   </sheetViews>
@@ -5573,17 +5581,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="67" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="70"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="53"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
@@ -5597,69 +5605,69 @@
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="67" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="70"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="56" t="s">
+      <c r="I2" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="58"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
       <c r="N2" s="15"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="70"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="58"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="51"/>
       <c r="N3" s="15"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="67" t="s">
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="70"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="53"/>
       <c r="N4" s="14"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -5683,24 +5691,24 @@
       <c r="P5" s="33"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -6129,33 +6137,33 @@
       <c r="P19" s="1"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="61" t="s">
+      <c r="A21" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="62"/>
-      <c r="N21" s="62"/>
-      <c r="O21" s="62"/>
-      <c r="P21" s="63"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="43"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="27">
         <v>1</v>
       </c>
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="60"/>
+      <c r="C22" s="55"/>
       <c r="D22" s="32" t="s">
         <v>199</v>
       </c>
@@ -6167,23 +6175,23 @@
       <c r="H22" s="32"/>
       <c r="I22" s="34"/>
       <c r="J22" s="33"/>
-      <c r="K22" s="50" t="s">
+      <c r="K22" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="L22" s="52"/>
-      <c r="M22" s="56" t="s">
+      <c r="L22" s="57"/>
+      <c r="M22" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="58"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="51"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="28"/>
-      <c r="B23" s="59" t="s">
+      <c r="B23" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="60"/>
+      <c r="C23" s="55"/>
       <c r="D23" s="32" t="s">
         <v>118</v>
       </c>
@@ -6197,23 +6205,23 @@
       </c>
       <c r="I23" s="34"/>
       <c r="J23" s="33"/>
-      <c r="K23" s="50" t="s">
+      <c r="K23" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="L23" s="52"/>
-      <c r="M23" s="56" t="s">
+      <c r="L23" s="57"/>
+      <c r="M23" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="N23" s="57"/>
-      <c r="O23" s="57"/>
-      <c r="P23" s="58"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="51"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="28"/>
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="C24" s="60"/>
+      <c r="C24" s="55"/>
       <c r="D24" s="32"/>
       <c r="E24" s="34"/>
       <c r="F24" s="34"/>
@@ -6225,17 +6233,17 @@
       <c r="J24" s="33"/>
       <c r="K24" s="17"/>
       <c r="L24" s="18"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="58"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="51"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="28"/>
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="60"/>
+      <c r="C25" s="55"/>
       <c r="D25" s="32"/>
       <c r="E25" s="34"/>
       <c r="F25" s="34"/>
@@ -6243,122 +6251,129 @@
       <c r="H25" s="34"/>
       <c r="I25" s="34"/>
       <c r="J25" s="33"/>
-      <c r="K25" s="50" t="s">
+      <c r="K25" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="L25" s="52"/>
-      <c r="M25" s="56" t="s">
+      <c r="L25" s="57"/>
+      <c r="M25" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="N25" s="57"/>
-      <c r="O25" s="57"/>
-      <c r="P25" s="58"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="51"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="28"/>
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="48"/>
-      <c r="P26" s="49"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="59"/>
+      <c r="P26" s="60"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="28"/>
       <c r="B27" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="50" t="s">
+      <c r="C27" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="51"/>
-      <c r="E27" s="52"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="57"/>
       <c r="F27" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="50" t="s">
+      <c r="G27" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="52"/>
-      <c r="I27" s="50" t="s">
+      <c r="H27" s="57"/>
+      <c r="I27" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="J27" s="52"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="55"/>
-      <c r="O27" s="55"/>
-      <c r="P27" s="54"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="64"/>
+      <c r="O27" s="64"/>
+      <c r="P27" s="63"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="28"/>
       <c r="B28" s="8">
         <v>1</v>
       </c>
-      <c r="C28" s="44" t="s">
+      <c r="C28" s="68" t="s">
         <v>319</v>
       </c>
-      <c r="D28" s="45"/>
-      <c r="E28" s="46"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="70"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="44" t="s">
+      <c r="G28" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="H28" s="46"/>
+      <c r="H28" s="70"/>
       <c r="I28" s="3"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="42"/>
-      <c r="P28" s="43"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="67"/>
+      <c r="M28" s="65"/>
+      <c r="N28" s="66"/>
+      <c r="O28" s="66"/>
+      <c r="P28" s="67"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="28"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="46"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="70"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="46"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="70"/>
       <c r="I29" s="3"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="42"/>
-      <c r="P29" s="43"/>
+      <c r="K29" s="65"/>
+      <c r="L29" s="67"/>
+      <c r="M29" s="65"/>
+      <c r="N29" s="66"/>
+      <c r="O29" s="66"/>
+      <c r="P29" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:P26"/>
     <mergeCell ref="A21:P21"/>
     <mergeCell ref="A22:A29"/>
     <mergeCell ref="B22:C22"/>
@@ -6375,26 +6390,19 @@
     <mergeCell ref="H24:J24"/>
     <mergeCell ref="M23:P23"/>
     <mergeCell ref="M24:P24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="D4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6427,91 +6435,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="67" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="70"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="53"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="56"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="58"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="51"/>
       <c r="N1" s="15"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="67" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="70"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="56" t="s">
+      <c r="I2" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="58"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="51"/>
       <c r="N2" s="15"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="70"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="58"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="51"/>
       <c r="N3" s="15"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="70"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="53"/>
       <c r="N4" s="14"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -6535,24 +6543,24 @@
       <c r="P5" s="33"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">

--- a/nop-batch/model/nop-batch.orm.xlsx
+++ b/nop-batch/model/nop-batch.orm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-batch\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8F9129-E29E-42E6-9EA2-BE44CB205EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC17C65-CB66-4287-A6AE-DEA44C9B0AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="4" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="5" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="322">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -602,10 +602,6 @@
   </si>
   <si>
     <t>处理状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>batch/process-state</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1724,6 +1720,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1748,71 +1804,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2173,10 +2169,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -2327,7 +2323,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>24</v>
@@ -2352,7 +2348,7 @@
         <v>74</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>80</v>
@@ -2363,7 +2359,7 @@
         <v>91</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>90</v>
@@ -2374,7 +2370,7 @@
         <v>89</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>81</v>
@@ -2385,7 +2381,7 @@
         <v>75</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>82</v>
@@ -2396,7 +2392,7 @@
         <v>76</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>83</v>
@@ -2665,7 +2661,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>101</v>
@@ -2885,41 +2881,41 @@
         <v>1</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E1" s="33"/>
       <c r="F1" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="G1" s="16" t="s">
         <v>253</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="28"/>
       <c r="B2" s="30" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="32" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E2" s="33"/>
       <c r="F2" s="20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="28"/>
       <c r="B3" s="30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C3" s="31"/>
       <c r="D3" s="32"/>
@@ -2930,7 +2926,7 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="28"/>
       <c r="B4" s="35" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C4" s="36"/>
       <c r="D4" s="36"/>
@@ -2941,22 +2937,22 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
       <c r="B5" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="C5" s="23" t="s">
         <v>259</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="D5" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E5" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="D5" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>261</v>
-      </c>
       <c r="F5" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="G5" s="23" t="s">
         <v>256</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2968,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="D6" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="E6" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="E6" s="24" t="s">
-        <v>263</v>
-      </c>
       <c r="F6" s="24" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G6" s="24"/>
     </row>
@@ -2987,16 +2983,16 @@
         <v>10</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E7" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="G7" s="25" t="s">
         <v>280</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>308</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -3008,16 +3004,16 @@
         <v>20</v>
       </c>
       <c r="D8" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="E8" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="E8" s="24" t="s">
-        <v>265</v>
-      </c>
       <c r="F8" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -3029,16 +3025,16 @@
         <v>30</v>
       </c>
       <c r="D9" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="E9" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="E9" s="24" t="s">
-        <v>268</v>
-      </c>
       <c r="F9" s="24" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -3050,16 +3046,16 @@
         <v>40</v>
       </c>
       <c r="D10" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="E10" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="E10" s="24" t="s">
-        <v>270</v>
-      </c>
       <c r="F10" s="24" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -3071,16 +3067,16 @@
         <v>50</v>
       </c>
       <c r="D11" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="E11" s="24" t="s">
         <v>274</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="F11" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="G11" s="25" t="s">
         <v>275</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>311</v>
-      </c>
-      <c r="G11" s="25" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -3092,16 +3088,16 @@
         <v>60</v>
       </c>
       <c r="D12" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="E12" s="24" t="s">
         <v>271</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="F12" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="G12" s="25" t="s">
         <v>272</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>312</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -3134,7 +3130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49753E9A-158A-4EB9-A449-F2590B12608A}">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="AC29" sqref="AC29"/>
     </sheetView>
   </sheetViews>
@@ -3156,91 +3152,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="47" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="67" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="49"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="51"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="58"/>
       <c r="N1" s="15"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="47" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="67" t="s">
         <v>118</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="49" t="s">
-        <v>144</v>
-      </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
+      <c r="I2" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="58"/>
       <c r="N2" s="15"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="51"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="58"/>
       <c r="N3" s="15"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="53"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="70"/>
       <c r="N4" s="14"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -3264,24 +3260,24 @@
       <c r="P5" s="33"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -3376,14 +3372,14 @@
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>146</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>147</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="7" t="s">
@@ -3408,14 +3404,14 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>149</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>150</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="7" t="s">
@@ -3431,7 +3427,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P10" s="1"/>
     </row>
@@ -3442,14 +3438,14 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>155</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>156</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="7" t="s">
@@ -3461,7 +3457,7 @@
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N11" s="9"/>
       <c r="O11" s="7"/>
@@ -3483,7 +3479,7 @@
         <v>56</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="7"/>
@@ -3513,7 +3509,7 @@
         <v>58</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="7"/>
@@ -3534,17 +3530,17 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="H14" s="9" t="s">
         <v>189</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>190</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="9" t="s">
@@ -3566,28 +3562,28 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>240</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>241</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
       <c r="O15" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P15" s="1"/>
     </row>
@@ -3597,17 +3593,17 @@
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="7" t="s">
@@ -3632,14 +3628,14 @@
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>218</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>219</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="7"/>
@@ -3661,22 +3657,22 @@
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="G18" s="9" t="s">
         <v>290</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>291</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="7"/>
       <c r="J18" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K18" s="7">
         <v>50</v>
@@ -3693,22 +3689,22 @@
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="G19" s="9" t="s">
         <v>315</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>316</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="7"/>
       <c r="J19" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K19" s="7">
         <v>50</v>
@@ -3725,17 +3721,17 @@
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="G20" s="9" t="s">
         <v>285</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>286</v>
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="7"/>
@@ -3763,7 +3759,7 @@
         <v>65</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="7"/>
@@ -3775,7 +3771,7 @@
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
       <c r="O21" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P21" s="1"/>
     </row>
@@ -3786,14 +3782,14 @@
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="7"/>
@@ -3807,7 +3803,7 @@
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
       <c r="O22" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P22" s="1"/>
     </row>
@@ -3818,14 +3814,14 @@
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="7"/>
@@ -3848,14 +3844,14 @@
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="G24" s="9" t="s">
         <v>159</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>160</v>
       </c>
       <c r="H24" s="9"/>
       <c r="I24" s="7"/>
@@ -3878,18 +3874,18 @@
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="G25" s="9" t="s">
         <v>185</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>186</v>
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J25" s="9" t="s">
         <v>63</v>
@@ -3908,18 +3904,18 @@
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J26" s="9" t="s">
         <v>63</v>
@@ -3938,21 +3934,21 @@
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="G27" s="9" t="s">
         <v>297</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>298</v>
       </c>
       <c r="H27" s="9"/>
       <c r="I27" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="J27" s="9" t="s">
         <v>299</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>300</v>
       </c>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
@@ -3968,18 +3964,18 @@
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="G28" s="9" t="s">
         <v>302</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>303</v>
       </c>
       <c r="H28" s="9"/>
       <c r="I28" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J28" s="9" t="s">
         <v>63</v>
@@ -3998,14 +3994,14 @@
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="G29" s="9" t="s">
         <v>294</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>295</v>
       </c>
       <c r="H29" s="9"/>
       <c r="I29" s="7" t="s">
@@ -4028,18 +4024,18 @@
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H30" s="9"/>
       <c r="I30" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J30" s="9" t="s">
         <v>63</v>
@@ -4058,18 +4054,18 @@
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H31" s="9"/>
       <c r="I31" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J31" s="9" t="s">
         <v>63</v>
@@ -4088,21 +4084,21 @@
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H32" s="9"/>
       <c r="I32" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
@@ -4327,35 +4323,35 @@
     </row>
     <row r="40" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="41" t="s">
+      <c r="A41" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="42"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="42"/>
-      <c r="L41" s="42"/>
-      <c r="M41" s="42"/>
-      <c r="N41" s="42"/>
-      <c r="O41" s="42"/>
-      <c r="P41" s="43"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="62"/>
+      <c r="H41" s="62"/>
+      <c r="I41" s="62"/>
+      <c r="J41" s="62"/>
+      <c r="K41" s="62"/>
+      <c r="L41" s="62"/>
+      <c r="M41" s="62"/>
+      <c r="N41" s="62"/>
+      <c r="O41" s="62"/>
+      <c r="P41" s="63"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="27">
         <v>1</v>
       </c>
-      <c r="B42" s="54" t="s">
+      <c r="B42" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="55"/>
+      <c r="C42" s="60"/>
       <c r="D42" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E42" s="34"/>
       <c r="F42" s="34"/>
@@ -4365,23 +4361,23 @@
       <c r="H42" s="32"/>
       <c r="I42" s="34"/>
       <c r="J42" s="33"/>
-      <c r="K42" s="56" t="s">
+      <c r="K42" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="L42" s="57"/>
-      <c r="M42" s="49" t="s">
-        <v>222</v>
-      </c>
-      <c r="N42" s="50"/>
-      <c r="O42" s="50"/>
-      <c r="P42" s="51"/>
+      <c r="L42" s="52"/>
+      <c r="M42" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="N42" s="57"/>
+      <c r="O42" s="57"/>
+      <c r="P42" s="58"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="28"/>
-      <c r="B43" s="54" t="s">
+      <c r="B43" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="55"/>
+      <c r="C43" s="60"/>
       <c r="D43" s="32" t="s">
         <v>123</v>
       </c>
@@ -4391,27 +4387,27 @@
         <v>3</v>
       </c>
       <c r="H43" s="32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I43" s="34"/>
       <c r="J43" s="33"/>
-      <c r="K43" s="56" t="s">
+      <c r="K43" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="L43" s="57"/>
-      <c r="M43" s="49" t="s">
+      <c r="L43" s="52"/>
+      <c r="M43" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="N43" s="50"/>
-      <c r="O43" s="50"/>
-      <c r="P43" s="51"/>
+      <c r="N43" s="57"/>
+      <c r="O43" s="57"/>
+      <c r="P43" s="58"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
-      <c r="B44" s="54" t="s">
+      <c r="B44" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="C44" s="55"/>
+      <c r="C44" s="60"/>
       <c r="D44" s="32"/>
       <c r="E44" s="34"/>
       <c r="F44" s="34"/>
@@ -4423,17 +4419,17 @@
       <c r="J44" s="33"/>
       <c r="K44" s="17"/>
       <c r="L44" s="18"/>
-      <c r="M44" s="49"/>
-      <c r="N44" s="50"/>
-      <c r="O44" s="50"/>
-      <c r="P44" s="51"/>
+      <c r="M44" s="56"/>
+      <c r="N44" s="57"/>
+      <c r="O44" s="57"/>
+      <c r="P44" s="58"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
-      <c r="B45" s="54" t="s">
+      <c r="B45" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="55"/>
+      <c r="C45" s="60"/>
       <c r="D45" s="32"/>
       <c r="E45" s="34"/>
       <c r="F45" s="34"/>
@@ -4441,106 +4437,106 @@
       <c r="H45" s="34"/>
       <c r="I45" s="34"/>
       <c r="J45" s="33"/>
-      <c r="K45" s="56" t="s">
+      <c r="K45" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="L45" s="57"/>
-      <c r="M45" s="49" t="s">
+      <c r="L45" s="52"/>
+      <c r="M45" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="N45" s="50"/>
-      <c r="O45" s="50"/>
-      <c r="P45" s="51"/>
+      <c r="N45" s="57"/>
+      <c r="O45" s="57"/>
+      <c r="P45" s="58"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="28"/>
-      <c r="B46" s="58" t="s">
+      <c r="B46" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="59"/>
-      <c r="H46" s="59"/>
-      <c r="I46" s="59"/>
-      <c r="J46" s="60"/>
-      <c r="K46" s="58"/>
-      <c r="L46" s="60"/>
-      <c r="M46" s="58"/>
-      <c r="N46" s="59"/>
-      <c r="O46" s="59"/>
-      <c r="P46" s="60"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="48"/>
+      <c r="J46" s="49"/>
+      <c r="K46" s="47"/>
+      <c r="L46" s="49"/>
+      <c r="M46" s="47"/>
+      <c r="N46" s="48"/>
+      <c r="O46" s="48"/>
+      <c r="P46" s="49"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="28"/>
       <c r="B47" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="56" t="s">
+      <c r="C47" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="61"/>
-      <c r="E47" s="57"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="52"/>
       <c r="F47" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="56" t="s">
+      <c r="G47" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="H47" s="57"/>
-      <c r="I47" s="56" t="s">
+      <c r="H47" s="52"/>
+      <c r="I47" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="J47" s="57"/>
-      <c r="K47" s="62"/>
-      <c r="L47" s="63"/>
-      <c r="M47" s="62"/>
-      <c r="N47" s="64"/>
-      <c r="O47" s="64"/>
-      <c r="P47" s="63"/>
+      <c r="J47" s="52"/>
+      <c r="K47" s="53"/>
+      <c r="L47" s="54"/>
+      <c r="M47" s="53"/>
+      <c r="N47" s="55"/>
+      <c r="O47" s="55"/>
+      <c r="P47" s="54"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="28"/>
       <c r="B48" s="8">
         <v>1</v>
       </c>
-      <c r="C48" s="68" t="s">
-        <v>223</v>
-      </c>
-      <c r="D48" s="69"/>
-      <c r="E48" s="70"/>
+      <c r="C48" s="44" t="s">
+        <v>222</v>
+      </c>
+      <c r="D48" s="45"/>
+      <c r="E48" s="46"/>
       <c r="F48" s="3"/>
-      <c r="G48" s="68" t="s">
+      <c r="G48" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="H48" s="70"/>
+      <c r="H48" s="46"/>
       <c r="I48" s="3"/>
       <c r="J48" s="4"/>
-      <c r="K48" s="65"/>
-      <c r="L48" s="67"/>
-      <c r="M48" s="65"/>
-      <c r="N48" s="66"/>
-      <c r="O48" s="66"/>
-      <c r="P48" s="67"/>
+      <c r="K48" s="41"/>
+      <c r="L48" s="43"/>
+      <c r="M48" s="41"/>
+      <c r="N48" s="42"/>
+      <c r="O48" s="42"/>
+      <c r="P48" s="43"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="28"/>
-      <c r="B49" s="68"/>
-      <c r="C49" s="69"/>
-      <c r="D49" s="69"/>
-      <c r="E49" s="70"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="46"/>
       <c r="F49" s="3"/>
-      <c r="G49" s="68"/>
-      <c r="H49" s="70"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="46"/>
       <c r="I49" s="3"/>
       <c r="J49" s="4"/>
-      <c r="K49" s="65"/>
-      <c r="L49" s="67"/>
-      <c r="M49" s="65"/>
-      <c r="N49" s="66"/>
-      <c r="O49" s="66"/>
-      <c r="P49" s="67"/>
+      <c r="K49" s="41"/>
+      <c r="L49" s="43"/>
+      <c r="M49" s="41"/>
+      <c r="N49" s="42"/>
+      <c r="O49" s="42"/>
+      <c r="P49" s="43"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B51" s="12" t="s">
@@ -4549,57 +4545,23 @@
       <c r="C51" s="12"/>
     </row>
     <row r="52" spans="1:16" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="44" t="s">
+      <c r="B52" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="C52" s="45"/>
-      <c r="D52" s="45"/>
-      <c r="E52" s="45"/>
-      <c r="F52" s="45"/>
-      <c r="G52" s="45"/>
-      <c r="H52" s="45"/>
-      <c r="I52" s="45"/>
-      <c r="J52" s="45"/>
-      <c r="K52" s="45"/>
-      <c r="L52" s="45"/>
-      <c r="M52" s="45"/>
+      <c r="C52" s="65"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="65"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="65"/>
+      <c r="H52" s="65"/>
+      <c r="I52" s="65"/>
+      <c r="J52" s="65"/>
+      <c r="K52" s="65"/>
+      <c r="L52" s="65"/>
+      <c r="M52" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="M48:P48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="M49:P49"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="M46:P46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="M47:P47"/>
-    <mergeCell ref="B46:J46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="M44:P44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:P45"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:P43"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="K42:L42"/>
     <mergeCell ref="A41:P41"/>
     <mergeCell ref="B52:M52"/>
     <mergeCell ref="A6:P6"/>
@@ -4616,6 +4578,40 @@
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="D4:M4"/>
     <mergeCell ref="A42:A49"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:P43"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M44:P44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:P45"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="M46:P46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="M47:P47"/>
+    <mergeCell ref="B46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="M48:P48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:P49"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="K48:L48"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4626,8 +4622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA792EB-955D-4449-A791-ADDEA67B871C}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4648,93 +4644,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="47" t="s">
-        <v>227</v>
-      </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="53"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="67" t="s">
+        <v>226</v>
+      </c>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="49"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="51"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="58"/>
       <c r="N1" s="15"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="47" t="s">
-        <v>194</v>
-      </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="53"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="67" t="s">
+        <v>193</v>
+      </c>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="70"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="49" t="s">
-        <v>228</v>
-      </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
+      <c r="I2" s="56" t="s">
+        <v>227</v>
+      </c>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="58"/>
       <c r="N2" s="15"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="47" t="s">
-        <v>203</v>
-      </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="53"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="67" t="s">
+        <v>202</v>
+      </c>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="70"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="51"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="58"/>
       <c r="N3" s="15"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="53"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="70"/>
       <c r="N4" s="14"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -4758,24 +4754,24 @@
       <c r="P5" s="33"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -4836,11 +4832,11 @@
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>21</v>
@@ -4870,14 +4866,14 @@
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="7" t="s">
@@ -4902,14 +4898,14 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>170</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>171</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="7" t="s">
@@ -4932,14 +4928,14 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>173</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>174</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="7"/>
@@ -4962,19 +4958,19 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>176</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>177</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="7"/>
       <c r="J12" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K12" s="7">
         <v>30</v>
@@ -4994,14 +4990,14 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>196</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>197</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="7"/>
@@ -5022,14 +5018,14 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>180</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>181</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="7"/>
@@ -5050,14 +5046,14 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="7"/>
@@ -5066,9 +5062,7 @@
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
-      <c r="M15" s="9" t="s">
-        <v>133</v>
-      </c>
+      <c r="M15" s="9"/>
       <c r="N15" s="9"/>
       <c r="O15" s="7"/>
       <c r="P15" s="1"/>
@@ -5276,35 +5270,35 @@
       <c r="P22" s="33"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="43"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="62"/>
+      <c r="P24" s="63"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="27">
         <v>1</v>
       </c>
-      <c r="B25" s="54" t="s">
+      <c r="B25" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="55"/>
+      <c r="C25" s="60"/>
       <c r="D25" s="32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E25" s="34"/>
       <c r="F25" s="34"/>
@@ -5312,27 +5306,27 @@
         <v>59</v>
       </c>
       <c r="H25" s="32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I25" s="34"/>
       <c r="J25" s="33"/>
-      <c r="K25" s="56" t="s">
+      <c r="K25" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="L25" s="57"/>
-      <c r="M25" s="49" t="s">
-        <v>200</v>
-      </c>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="51"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="56" t="s">
+        <v>199</v>
+      </c>
+      <c r="N25" s="57"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="58"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="28"/>
-      <c r="B26" s="54" t="s">
+      <c r="B26" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="55"/>
+      <c r="C26" s="60"/>
       <c r="D26" s="32" t="s">
         <v>118</v>
       </c>
@@ -5342,29 +5336,29 @@
         <v>3</v>
       </c>
       <c r="H26" s="32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I26" s="34"/>
       <c r="J26" s="33"/>
-      <c r="K26" s="56" t="s">
+      <c r="K26" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="L26" s="57"/>
-      <c r="M26" s="49" t="s">
+      <c r="L26" s="52"/>
+      <c r="M26" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="N26" s="50"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="51"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="57"/>
+      <c r="P26" s="58"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="28"/>
-      <c r="B27" s="54" t="s">
+      <c r="B27" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="55"/>
+      <c r="C27" s="60"/>
       <c r="D27" s="32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E27" s="34"/>
       <c r="F27" s="34"/>
@@ -5372,23 +5366,23 @@
         <v>104</v>
       </c>
       <c r="H27" s="34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I27" s="34"/>
       <c r="J27" s="33"/>
       <c r="K27" s="17"/>
       <c r="L27" s="18"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="51"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="58"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="28"/>
-      <c r="B28" s="54" t="s">
+      <c r="B28" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="55"/>
+      <c r="C28" s="60"/>
       <c r="D28" s="32"/>
       <c r="E28" s="34"/>
       <c r="F28" s="34"/>
@@ -5396,109 +5390,143 @@
       <c r="H28" s="34"/>
       <c r="I28" s="34"/>
       <c r="J28" s="33"/>
-      <c r="K28" s="56" t="s">
+      <c r="K28" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="57"/>
-      <c r="M28" s="49" t="s">
+      <c r="L28" s="52"/>
+      <c r="M28" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="N28" s="50"/>
-      <c r="O28" s="50"/>
-      <c r="P28" s="51"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="58"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="28"/>
-      <c r="B29" s="58" t="s">
+      <c r="B29" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="59"/>
-      <c r="O29" s="59"/>
-      <c r="P29" s="60"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="49"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="28"/>
       <c r="B30" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="56" t="s">
+      <c r="C30" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="61"/>
-      <c r="E30" s="57"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="52"/>
       <c r="F30" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="56" t="s">
+      <c r="G30" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="57"/>
-      <c r="I30" s="56" t="s">
+      <c r="H30" s="52"/>
+      <c r="I30" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="57"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="63"/>
-      <c r="M30" s="62"/>
-      <c r="N30" s="64"/>
-      <c r="O30" s="64"/>
-      <c r="P30" s="63"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="55"/>
+      <c r="P30" s="54"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="28"/>
       <c r="B31" s="8">
         <v>1</v>
       </c>
-      <c r="C31" s="68" t="s">
-        <v>319</v>
-      </c>
-      <c r="D31" s="69"/>
-      <c r="E31" s="70"/>
+      <c r="C31" s="44" t="s">
+        <v>318</v>
+      </c>
+      <c r="D31" s="45"/>
+      <c r="E31" s="46"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="68" t="s">
+      <c r="G31" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="H31" s="70"/>
+      <c r="H31" s="46"/>
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="67"/>
-      <c r="M31" s="65"/>
-      <c r="N31" s="66"/>
-      <c r="O31" s="66"/>
-      <c r="P31" s="67"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="43"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="43"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="28"/>
-      <c r="B32" s="68"/>
-      <c r="C32" s="69"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="70"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="46"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="70"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="46"/>
       <c r="I32" s="3"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="65"/>
-      <c r="L32" s="67"/>
-      <c r="M32" s="65"/>
-      <c r="N32" s="66"/>
-      <c r="O32" s="66"/>
-      <c r="P32" s="67"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A22:P22"/>
+    <mergeCell ref="A24:P24"/>
+    <mergeCell ref="A25:A32"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
     <mergeCell ref="B29:J29"/>
     <mergeCell ref="K29:L29"/>
     <mergeCell ref="M29:P29"/>
@@ -5515,40 +5543,6 @@
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="K31:L31"/>
     <mergeCell ref="M31:P31"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A22:P22"/>
-    <mergeCell ref="A24:P24"/>
-    <mergeCell ref="A25:A32"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5581,17 +5575,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="47" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="53"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
@@ -5605,69 +5599,69 @@
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="47" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="53"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="70"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
+      <c r="I2" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="58"/>
       <c r="N2" s="15"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="53"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="70"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="51"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="58"/>
       <c r="N3" s="15"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="53"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="70"/>
       <c r="N4" s="14"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -5691,24 +5685,24 @@
       <c r="P5" s="33"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -5769,11 +5763,11 @@
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>21</v>
@@ -5803,14 +5797,14 @@
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="7" t="s">
@@ -5842,11 +5836,11 @@
         <v>65</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>29</v>
@@ -5856,7 +5850,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P10" s="1"/>
     </row>
@@ -5867,14 +5861,14 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="7"/>
@@ -5888,7 +5882,7 @@
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P11" s="1"/>
     </row>
@@ -5899,14 +5893,14 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="7"/>
@@ -5929,14 +5923,14 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>159</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>160</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="7"/>
@@ -6137,35 +6131,35 @@
       <c r="P19" s="1"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="43"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="62"/>
+      <c r="P21" s="63"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="27">
         <v>1</v>
       </c>
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="55"/>
+      <c r="C22" s="60"/>
       <c r="D22" s="32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E22" s="34"/>
       <c r="F22" s="34"/>
@@ -6175,23 +6169,23 @@
       <c r="H22" s="32"/>
       <c r="I22" s="34"/>
       <c r="J22" s="33"/>
-      <c r="K22" s="56" t="s">
+      <c r="K22" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="L22" s="57"/>
-      <c r="M22" s="49" t="s">
-        <v>200</v>
-      </c>
-      <c r="N22" s="50"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="51"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="56" t="s">
+        <v>199</v>
+      </c>
+      <c r="N22" s="57"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="58"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="28"/>
-      <c r="B23" s="54" t="s">
+      <c r="B23" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="55"/>
+      <c r="C23" s="60"/>
       <c r="D23" s="32" t="s">
         <v>118</v>
       </c>
@@ -6201,27 +6195,27 @@
         <v>3</v>
       </c>
       <c r="H23" s="32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I23" s="34"/>
       <c r="J23" s="33"/>
-      <c r="K23" s="56" t="s">
+      <c r="K23" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="L23" s="57"/>
-      <c r="M23" s="49" t="s">
+      <c r="L23" s="52"/>
+      <c r="M23" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="51"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="58"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="28"/>
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="C24" s="55"/>
+      <c r="C24" s="60"/>
       <c r="D24" s="32"/>
       <c r="E24" s="34"/>
       <c r="F24" s="34"/>
@@ -6233,17 +6227,17 @@
       <c r="J24" s="33"/>
       <c r="K24" s="17"/>
       <c r="L24" s="18"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="51"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="58"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="28"/>
-      <c r="B25" s="54" t="s">
+      <c r="B25" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="55"/>
+      <c r="C25" s="60"/>
       <c r="D25" s="32"/>
       <c r="E25" s="34"/>
       <c r="F25" s="34"/>
@@ -6251,129 +6245,122 @@
       <c r="H25" s="34"/>
       <c r="I25" s="34"/>
       <c r="J25" s="33"/>
-      <c r="K25" s="56" t="s">
+      <c r="K25" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="L25" s="57"/>
-      <c r="M25" s="49" t="s">
+      <c r="L25" s="52"/>
+      <c r="M25" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="51"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="58"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="28"/>
-      <c r="B26" s="58" t="s">
+      <c r="B26" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="59"/>
-      <c r="O26" s="59"/>
-      <c r="P26" s="60"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="49"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="28"/>
       <c r="B27" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="56" t="s">
+      <c r="C27" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="57"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="52"/>
       <c r="F27" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="56" t="s">
+      <c r="G27" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="57"/>
-      <c r="I27" s="56" t="s">
+      <c r="H27" s="52"/>
+      <c r="I27" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="J27" s="57"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="63"/>
-      <c r="M27" s="62"/>
-      <c r="N27" s="64"/>
-      <c r="O27" s="64"/>
-      <c r="P27" s="63"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="55"/>
+      <c r="P27" s="54"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="28"/>
       <c r="B28" s="8">
         <v>1</v>
       </c>
-      <c r="C28" s="68" t="s">
-        <v>319</v>
-      </c>
-      <c r="D28" s="69"/>
-      <c r="E28" s="70"/>
+      <c r="C28" s="44" t="s">
+        <v>318</v>
+      </c>
+      <c r="D28" s="45"/>
+      <c r="E28" s="46"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="68" t="s">
+      <c r="G28" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="H28" s="70"/>
+      <c r="H28" s="46"/>
       <c r="I28" s="3"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="67"/>
-      <c r="M28" s="65"/>
-      <c r="N28" s="66"/>
-      <c r="O28" s="66"/>
-      <c r="P28" s="67"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="43"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="28"/>
-      <c r="B29" s="68"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="70"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="46"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="70"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="46"/>
       <c r="I29" s="3"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="67"/>
-      <c r="M29" s="65"/>
-      <c r="N29" s="66"/>
-      <c r="O29" s="66"/>
-      <c r="P29" s="67"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="D4:M4"/>
     <mergeCell ref="A21:P21"/>
     <mergeCell ref="A22:A29"/>
     <mergeCell ref="B22:C22"/>
@@ -6390,19 +6377,26 @@
     <mergeCell ref="H24:J24"/>
     <mergeCell ref="M23:P23"/>
     <mergeCell ref="M24:P24"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:P29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6435,91 +6429,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="47" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="53"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="49"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="51"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="58"/>
       <c r="N1" s="15"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="47" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="53"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="70"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
+      <c r="I2" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="58"/>
       <c r="N2" s="15"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="53"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="70"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="51"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="58"/>
       <c r="N3" s="15"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="53"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="70"/>
       <c r="N4" s="14"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -6543,24 +6537,24 @@
       <c r="P5" s="33"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -6721,14 +6715,14 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>136</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>137</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="7" t="s">
@@ -6751,14 +6745,14 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>139</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>140</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="7" t="s">
@@ -6783,14 +6777,14 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>216</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>217</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="7" t="s">
@@ -6815,11 +6809,11 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>118</v>
@@ -6879,14 +6873,14 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="G16" s="9" t="s">
         <v>212</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>213</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="7" t="s">

--- a/nop-batch/model/nop-batch.orm.xlsx
+++ b/nop-batch/model/nop-batch.orm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-batch\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC17C65-CB66-4287-A6AE-DEA44C9B0AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A73F45-9510-4FFC-AC9D-C58DCD4E1EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="5" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="6" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="335">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1357,6 +1357,58 @@
   </si>
   <si>
     <t>var</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RECORD_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Record Info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除了key之外的其他信息，一般用JSON格式保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HANDLE_STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Handle Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RETRY_COUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Retry Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重试次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次执行时重试次数为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BATCH_SIZE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Batch Size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批次大小</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4622,7 +4674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA792EB-955D-4449-A791-ADDEA67B871C}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
@@ -5551,10 +5603,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2266CBF-16D7-4305-8E93-0AAD229883C5}">
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5953,31 +6005,29 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>109</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="E14" s="9"/>
       <c r="F14" s="9" t="s">
-        <v>35</v>
+        <v>323</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>27</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="7"/>
       <c r="J14" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="K14" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="K14" s="7">
+        <v>2000</v>
+      </c>
       <c r="L14" s="7"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
-      <c r="O14" s="7"/>
+      <c r="O14" s="7" t="s">
+        <v>325</v>
+      </c>
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -5987,31 +6037,29 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="7"/>
+        <v>328</v>
+      </c>
+      <c r="E15" s="9"/>
       <c r="F15" s="9" t="s">
-        <v>38</v>
+        <v>329</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>95</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="H15" s="9"/>
       <c r="I15" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="7">
-        <v>50</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
-      <c r="O15" s="7"/>
+      <c r="O15" s="7" t="s">
+        <v>331</v>
+      </c>
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -6021,23 +6069,21 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="7"/>
+        <v>332</v>
+      </c>
+      <c r="E16" s="9"/>
       <c r="F16" s="9" t="s">
-        <v>42</v>
+        <v>333</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>97</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="H16" s="9"/>
       <c r="I16" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
@@ -6053,27 +6099,23 @@
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="7"/>
+        <v>326</v>
+      </c>
+      <c r="E17" s="9"/>
       <c r="F17" s="9" t="s">
-        <v>46</v>
+        <v>327</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>96</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="H17" s="9"/>
       <c r="I17" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" s="7">
-        <v>50</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
@@ -6087,23 +6129,25 @@
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>109</v>
+      </c>
       <c r="F18" s="9" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
@@ -6113,238 +6157,370 @@
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
+      <c r="A19" s="7">
+        <v>12</v>
+      </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+      <c r="D19" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
+      <c r="F19" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" s="7">
+        <v>50</v>
+      </c>
       <c r="L19" s="7"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
       <c r="O19" s="7"/>
       <c r="P19" s="1"/>
     </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>13</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="1"/>
+    </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="61" t="s">
+      <c r="A21" s="7">
+        <v>14</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="7">
+        <v>50</v>
+      </c>
+      <c r="L21" s="7"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>15</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="62"/>
-      <c r="N21" s="62"/>
-      <c r="O21" s="62"/>
-      <c r="P21" s="63"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="27">
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="62"/>
+      <c r="O25" s="62"/>
+      <c r="P25" s="63"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="27">
         <v>1</v>
       </c>
-      <c r="B22" s="59" t="s">
+      <c r="B26" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="60"/>
-      <c r="D22" s="32" t="s">
+      <c r="C26" s="60"/>
+      <c r="D26" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="2" t="s">
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H22" s="32"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="50" t="s">
+      <c r="H26" s="32"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="L22" s="52"/>
-      <c r="M22" s="56" t="s">
+      <c r="L26" s="52"/>
+      <c r="M26" s="56" t="s">
         <v>199</v>
       </c>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="58"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="60"/>
-      <c r="D23" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="I23" s="34"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="L23" s="52"/>
-      <c r="M23" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="N23" s="57"/>
-      <c r="O23" s="57"/>
-      <c r="P23" s="58"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
-      <c r="B24" s="59" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" s="60"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="58"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
-      <c r="B25" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="60"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="L25" s="52"/>
-      <c r="M25" s="56" t="s">
-        <v>107</v>
-      </c>
-      <c r="N25" s="57"/>
-      <c r="O25" s="57"/>
-      <c r="P25" s="58"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
-      <c r="B26" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="48"/>
-      <c r="P26" s="49"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="57"/>
+      <c r="P26" s="58"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="28"/>
-      <c r="B27" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="51"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" s="52"/>
-      <c r="I27" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="J27" s="52"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="55"/>
-      <c r="O27" s="55"/>
-      <c r="P27" s="54"/>
+      <c r="B27" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="60"/>
+      <c r="D27" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="I27" s="34"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="L27" s="52"/>
+      <c r="M27" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="N27" s="57"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="58"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="28"/>
-      <c r="B28" s="8">
-        <v>1</v>
-      </c>
-      <c r="C28" s="44" t="s">
-        <v>318</v>
-      </c>
-      <c r="D28" s="45"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="H28" s="46"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="42"/>
-      <c r="P28" s="43"/>
+      <c r="B28" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="60"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="58"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="28"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="42"/>
-      <c r="P29" s="43"/>
+      <c r="B29" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="60"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="L29" s="52"/>
+      <c r="M29" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="N29" s="57"/>
+      <c r="O29" s="57"/>
+      <c r="P29" s="58"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="28"/>
+      <c r="B30" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="49"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="28"/>
+      <c r="B31" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="51"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="52"/>
+      <c r="I31" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" s="52"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="55"/>
+      <c r="O31" s="55"/>
+      <c r="P31" s="54"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="28"/>
+      <c r="B32" s="8">
+        <v>1</v>
+      </c>
+      <c r="C32" s="44" t="s">
+        <v>318</v>
+      </c>
+      <c r="D32" s="45"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="H32" s="46"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="43"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="28"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="42"/>
+      <c r="P33" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="49">
@@ -6361,42 +6537,42 @@
     <mergeCell ref="A5:P5"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="D4:M4"/>
-    <mergeCell ref="A21:P21"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="A25:P25"/>
+    <mergeCell ref="A26:A33"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="K27:L27"/>
     <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="M27:P27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="K28:L28"/>
     <mergeCell ref="M28:P28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:J29"/>
     <mergeCell ref="K29:L29"/>
     <mergeCell ref="M29:P29"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:P33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
